--- a/sriramModel-nelson-atypical-patientID_26-sims-cort-5-iterations.xlsx
+++ b/sriramModel-nelson-atypical-patientID_26-sims-cort-5-iterations.xlsx
@@ -394,19 +394,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>8.313259406880292</v>
+        <v>8.298395963979461</v>
       </c>
       <c r="C2">
-        <v>8.291819268606442</v>
+        <v>8.300864001095357</v>
       </c>
       <c r="D2">
-        <v>8.313856117736851</v>
+        <v>8.302596441601603</v>
       </c>
       <c r="E2">
-        <v>8.311538150714219</v>
+        <v>8.303521699214267</v>
       </c>
       <c r="F2">
-        <v>8.308469048930462</v>
+        <v>8.303179010246581</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -414,19 +414,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>8.325164284821167</v>
+        <v>8.296084635951839</v>
       </c>
       <c r="C3">
-        <v>8.285773018240485</v>
+        <v>8.300213609474929</v>
       </c>
       <c r="D3">
-        <v>8.3269042745842</v>
+        <v>8.305208181785009</v>
       </c>
       <c r="E3">
-        <v>8.321731038754384</v>
+        <v>8.305352302903351</v>
       </c>
       <c r="F3">
-        <v>8.316261105898496</v>
+        <v>8.304411500834556</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -434,19 +434,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>8.335871625115969</v>
+        <v>8.293221782727207</v>
       </c>
       <c r="C4">
-        <v>8.281835245933145</v>
+        <v>8.298296192327834</v>
       </c>
       <c r="D4">
-        <v>8.339248818405299</v>
+        <v>8.307918848441856</v>
       </c>
       <c r="E4">
-        <v>8.330745013666581</v>
+        <v>8.305733993814222</v>
       </c>
       <c r="F4">
-        <v>8.323484913865745</v>
+        <v>8.303966488340462</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -454,19 +454,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>8.345529457553154</v>
+        <v>8.289955866168265</v>
       </c>
       <c r="C5">
-        <v>8.279978687270184</v>
+        <v>8.295344962476927</v>
       </c>
       <c r="D5">
-        <v>8.350989893971096</v>
+        <v>8.310808596400388</v>
       </c>
       <c r="E5">
-        <v>8.338736464422425</v>
+        <v>8.304896563288292</v>
       </c>
       <c r="F5">
-        <v>8.330242600718389</v>
+        <v>8.302098903805698</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -474,19 +474,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>8.35427799888582</v>
+        <v>8.286428451720129</v>
       </c>
       <c r="C6">
-        <v>8.280175113075558</v>
+        <v>8.291579846703593</v>
       </c>
       <c r="D6">
-        <v>8.362223899619714</v>
+        <v>8.313954235047953</v>
       </c>
       <c r="E6">
-        <v>8.345853061485958</v>
+        <v>8.303058120973581</v>
       </c>
       <c r="F6">
-        <v>8.336630333982237</v>
+        <v>8.299050758100488</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -494,19 +494,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>8.362250071980975</v>
+        <v>8.282774654589339</v>
       </c>
       <c r="C7">
-        <v>8.282395177066508</v>
+        <v>8.287208302244391</v>
       </c>
       <c r="D7">
-        <v>8.373043354848019</v>
+        <v>8.317429443086422</v>
       </c>
       <c r="E7">
-        <v>8.352233734487243</v>
+        <v>8.300425948177208</v>
       </c>
       <c r="F7">
-        <v>8.342738816863765</v>
+        <v>8.295051105760036</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -514,19 +514,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>8.369570802696122</v>
+        <v>8.279123502508927</v>
       </c>
       <c r="C8">
-        <v>8.286608678947298</v>
+        <v>8.28242610372933</v>
       </c>
       <c r="D8">
-        <v>8.38353714691465</v>
+        <v>8.321304922532068</v>
       </c>
       <c r="E8">
-        <v>8.358009281739776</v>
+        <v>8.297197038623901</v>
       </c>
       <c r="F8">
-        <v>8.348653231686736</v>
+        <v>8.290317267137461</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -534,19 +534,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>8.376358485347998</v>
+        <v>8.27559814454615</v>
       </c>
       <c r="C9">
-        <v>8.292784607173822</v>
+        <v>8.277417967765832</v>
       </c>
       <c r="D9">
-        <v>8.393790743515929</v>
+        <v>8.325648509038903</v>
       </c>
       <c r="E9">
-        <v>8.363302960002729</v>
+        <v>8.293558515893299</v>
       </c>
       <c r="F9">
-        <v>8.354453651047917</v>
+        <v>8.285055364338538</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -554,19 +554,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.382725015308234</v>
+        <v>8.272316090306719</v>
       </c>
       <c r="C10">
-        <v>8.300890983120192</v>
+        <v>8.272358187471049</v>
       </c>
       <c r="D10">
-        <v>8.403886262958533</v>
+        <v>8.33052527148916</v>
       </c>
       <c r="E10">
-        <v>8.368230828902988</v>
+        <v>8.289688165337017</v>
       </c>
       <c r="F10">
-        <v>8.36021543221911</v>
+        <v>8.279460753368822</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -574,19 +574,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.3887761034091</v>
+        <v>8.269389491675229</v>
       </c>
       <c r="C11">
-        <v>8.310894922023165</v>
+        <v>8.267411161763611</v>
       </c>
       <c r="D11">
-        <v>8.413902581367664</v>
+        <v>8.335997595860086</v>
       </c>
       <c r="E11">
-        <v>8.372902061668407</v>
+        <v>8.285754825583066</v>
       </c>
       <c r="F11">
-        <v>8.366009458705161</v>
+        <v>8.273718609510142</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -594,19 +594,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>8.394611528048848</v>
+        <v>8.266925321681699</v>
       </c>
       <c r="C12">
-        <v>8.322762717777515</v>
+        <v>8.262731874877858</v>
       </c>
       <c r="D12">
-        <v>8.423915461358693</v>
+        <v>8.342125288639981</v>
       </c>
       <c r="E12">
-        <v>8.37741934822321</v>
+        <v>8.28191878309921</v>
       </c>
       <c r="F12">
-        <v>8.371902298755739</v>
+        <v>8.26800448093546</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -614,19 +614,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8.40032545410647</v>
+        <v>8.26502565484477</v>
       </c>
       <c r="C13">
-        <v>8.336459895317217</v>
+        <v>8.258466684075163</v>
       </c>
       <c r="D13">
-        <v>8.43399766802259</v>
+        <v>8.348965689837453</v>
       </c>
       <c r="E13">
-        <v>8.381879261202471</v>
+        <v>8.278332269030511</v>
       </c>
       <c r="F13">
-        <v>8.377956427049305</v>
+        <v>8.262484776843859</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -634,19 +634,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.406006741428808</v>
+        <v>8.263787769076767</v>
       </c>
       <c r="C14">
-        <v>8.351951248241122</v>
+        <v>8.254753648605385</v>
       </c>
       <c r="D14">
-        <v>8.444219072930458</v>
+        <v>8.356573704417926</v>
       </c>
       <c r="E14">
-        <v>8.386372572141834</v>
+        <v>8.275139877732785</v>
       </c>
       <c r="F14">
-        <v>8.38423048225879</v>
+        <v>8.257317201655026</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -654,19 +654,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.411739220024311</v>
+        <v>8.263304435956591</v>
       </c>
       <c r="C15">
-        <v>8.369200859759147</v>
+        <v>8.251722907517353</v>
       </c>
       <c r="D15">
-        <v>8.454646748375108</v>
+        <v>8.365001914098674</v>
       </c>
       <c r="E15">
-        <v>8.39098454995764</v>
+        <v>8.272478949483787</v>
       </c>
       <c r="F15">
-        <v>8.390779477913211</v>
+        <v>8.252651237694256</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -674,19 +674,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.417601938884681</v>
+        <v>8.263664226005279</v>
       </c>
       <c r="C16">
-        <v>8.388172121069267</v>
+        <v>8.249497184618139</v>
       </c>
       <c r="D16">
-        <v>8.465345066741195</v>
+        <v>8.374300692096288</v>
       </c>
       <c r="E16">
-        <v>8.395795285641388</v>
+        <v>8.270479939633898</v>
       </c>
       <c r="F16">
-        <v>8.397654987586245</v>
+        <v>8.248628503464923</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -694,19 +694,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.423669389370323</v>
+        <v>8.264951564241358</v>
       </c>
       <c r="C17">
-        <v>8.408827746182411</v>
+        <v>8.248192224792628</v>
       </c>
       <c r="D17">
-        <v>8.476375788231651</v>
+        <v>8.384518179403752</v>
       </c>
       <c r="E17">
-        <v>8.400879851107987</v>
+        <v>8.269266675720894</v>
       </c>
       <c r="F17">
-        <v>8.404905320340664</v>
+        <v>8.245383036490489</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -714,19 +714,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.430011740625716</v>
+        <v>8.267247007843542</v>
       </c>
       <c r="C18">
-        <v>8.431129794101725</v>
+        <v>8.247917146571442</v>
       </c>
       <c r="D18">
-        <v>8.487798157402274</v>
+        <v>8.395700570689787</v>
       </c>
       <c r="E18">
-        <v>8.406308622567717</v>
+        <v>8.268956672724329</v>
       </c>
       <c r="F18">
-        <v>8.412575691899288</v>
+        <v>8.243041915161829</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -734,19 +734,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.436695057377154</v>
+        <v>8.270627309677396</v>
       </c>
       <c r="C19">
-        <v>8.455039670993751</v>
+        <v>8.248774795889497</v>
       </c>
       <c r="D19">
-        <v>8.499668961689657</v>
+        <v>8.407892009306263</v>
       </c>
       <c r="E19">
-        <v>8.412147550781885</v>
+        <v>8.269661485750747</v>
       </c>
       <c r="F19">
-        <v>8.420708389359229</v>
+        <v>8.241725510834321</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -754,19 +754,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.443781551583815</v>
+        <v>8.275165618425032</v>
       </c>
       <c r="C20">
-        <v>8.480518160497654</v>
+        <v>8.250862093030561</v>
       </c>
       <c r="D20">
-        <v>8.512042603843961</v>
+        <v>8.421134770685125</v>
       </c>
       <c r="E20">
-        <v>8.418458343983669</v>
+        <v>8.271486994246137</v>
       </c>
       <c r="F20">
-        <v>8.429342927045694</v>
+        <v>8.241547843287536</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -774,19 +774,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.451329657632801</v>
+        <v>8.280931630598243</v>
       </c>
       <c r="C21">
-        <v>8.507525437232383</v>
+        <v>8.254270357208419</v>
       </c>
       <c r="D21">
-        <v>8.524971215688506</v>
+        <v>8.435469282783295</v>
       </c>
       <c r="E21">
-        <v>8.425298761823871</v>
+        <v>8.274533652962877</v>
       </c>
       <c r="F21">
-        <v>8.438516192919588</v>
+        <v>8.242616923171532</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -794,19 +794,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>8.459394415535398</v>
+        <v>8.287991758113556</v>
       </c>
       <c r="C22">
-        <v>8.536021098749597</v>
+        <v>8.259085616080887</v>
       </c>
       <c r="D22">
-        <v>8.53850469397627</v>
+        <v>8.4509341727705</v>
       </c>
       <c r="E22">
-        <v>8.432722759530598</v>
+        <v>8.278896864256973</v>
       </c>
       <c r="F22">
-        <v>8.448262586163604</v>
+        <v>8.245034958183091</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -814,19 +814,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>8.4680272335853</v>
+        <v>8.296409269062682</v>
       </c>
       <c r="C23">
-        <v>8.565964162384679</v>
+        <v>8.265388888949859</v>
       </c>
       <c r="D23">
-        <v>8.552690793229475</v>
+        <v>8.467566347770532</v>
       </c>
       <c r="E23">
-        <v>8.440780653951105</v>
+        <v>8.284667030319788</v>
       </c>
       <c r="F23">
-        <v>8.458614146805104</v>
+        <v>8.248898686125717</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -834,19 +834,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.47727660268186</v>
+        <v>8.306244435521068</v>
       </c>
       <c r="C24">
-        <v>8.597313098120452</v>
+        <v>8.273256451866418</v>
       </c>
       <c r="D24">
-        <v>8.567575159551827</v>
+        <v>8.485401049220348</v>
       </c>
       <c r="E24">
-        <v>8.44951931713509</v>
+        <v>8.291930078010086</v>
       </c>
       <c r="F24">
-        <v>8.469600677972194</v>
+        <v>8.25429964925654</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -854,19 +854,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>8.487187827111173</v>
+        <v>8.31755466315926</v>
       </c>
       <c r="C25">
-        <v>8.630025799006587</v>
+        <v>8.282760092807694</v>
       </c>
       <c r="D25">
-        <v>8.583201395362581</v>
+        <v>8.504471928903493</v>
       </c>
       <c r="E25">
-        <v>8.458982320337226</v>
+        <v>8.300767482715747</v>
       </c>
       <c r="F25">
-        <v>8.481249861088653</v>
+        <v>8.26132447032999</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -874,19 +874,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>8.497803487135334</v>
+        <v>8.330394603010058</v>
       </c>
       <c r="C26">
-        <v>8.66405963554435</v>
+        <v>8.293967353543334</v>
       </c>
       <c r="D26">
-        <v>8.599611108236854</v>
+        <v>8.524811096054622</v>
       </c>
       <c r="E26">
-        <v>8.469210123579487</v>
+        <v>8.311256439589139</v>
       </c>
       <c r="F26">
-        <v>8.493587366101163</v>
+        <v>8.270055100939391</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -894,19 +894,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>8.509163355263292</v>
+        <v>8.344816280589816</v>
       </c>
       <c r="C27">
-        <v>8.699371434269537</v>
+        <v>8.306941758095165</v>
       </c>
       <c r="D27">
-        <v>8.616843946259998</v>
+        <v>8.546449195617576</v>
       </c>
       <c r="E27">
-        <v>8.480240203843858</v>
+        <v>8.323470128277481</v>
       </c>
       <c r="F27">
-        <v>8.506636946723875</v>
+        <v>8.280569051032538</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -914,19 +914,19 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>8.521304676956529</v>
+        <v>8.360869203900311</v>
       </c>
       <c r="C28">
-        <v>8.735917503019841</v>
+        <v>8.321743027704922</v>
       </c>
       <c r="D28">
-        <v>8.63493764905726</v>
+        <v>8.569415447424825</v>
       </c>
       <c r="E28">
-        <v>8.492107208231406</v>
+        <v>8.337477895532651</v>
       </c>
       <c r="F28">
-        <v>8.520420542519542</v>
+        <v>8.292939616419725</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -934,19 +934,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>8.534262121976084</v>
+        <v>8.378600472737242</v>
       </c>
       <c r="C29">
-        <v>8.773653626860694</v>
+        <v>8.338427284403881</v>
       </c>
       <c r="D29">
-        <v>8.653928082567001</v>
+        <v>8.593737708141877</v>
       </c>
       <c r="E29">
-        <v>8.504843063205113</v>
+        <v>8.353345488872876</v>
       </c>
       <c r="F29">
-        <v>8.534958365232507</v>
+        <v>8.307236076045632</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -954,19 +954,19 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>8.548068021133238</v>
+        <v>8.398054885297482</v>
       </c>
       <c r="C30">
-        <v>8.812535085611927</v>
+        <v>8.357047240723951</v>
       </c>
       <c r="D30">
-        <v>8.67384926950202</v>
+        <v>8.619442503548933</v>
       </c>
       <c r="E30">
-        <v>8.518477088135651</v>
+        <v>8.371135184937453</v>
       </c>
       <c r="F30">
-        <v>8.550268981315616</v>
+        <v>8.323523890805179</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -974,19 +974,19 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>8.56275239346513</v>
+        <v>8.419275042849243</v>
       </c>
       <c r="C31">
-        <v>8.852516656270552</v>
+        <v>8.377652378759491</v>
       </c>
       <c r="D31">
-        <v>8.694733409222788</v>
+        <v>8.646555099707133</v>
       </c>
       <c r="E31">
-        <v>8.533036103508678</v>
+        <v>8.390906001872787</v>
       </c>
       <c r="F31">
-        <v>8.566369388554385</v>
+        <v>8.34186489765707</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -994,19 +994,19 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>8.578343095806055</v>
+        <v>8.442301437441518</v>
       </c>
       <c r="C32">
-        <v>8.893552623443682</v>
+        <v>8.40028912050696</v>
       </c>
       <c r="D32">
-        <v>8.716610900028451</v>
+        <v>8.675099523957609</v>
       </c>
       <c r="E32">
-        <v>8.548544529450551</v>
+        <v>8.412713810777184</v>
       </c>
       <c r="F32">
-        <v>8.583275086735359</v>
+        <v>8.362317491255386</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1014,19 +1014,19 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>8.594865905318057</v>
+        <v>8.467172542849896</v>
       </c>
       <c r="C33">
-        <v>8.935596784407601</v>
+        <v>8.4250009876926</v>
       </c>
       <c r="D33">
-        <v>8.739510348757763</v>
+        <v>8.705098629806452</v>
       </c>
       <c r="E33">
-        <v>8.565024469078649</v>
+        <v>8.436611466299945</v>
       </c>
       <c r="F33">
-        <v>8.601000142387424</v>
+        <v>8.384936793952525</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1034,19 +1034,19 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>8.612344598001929</v>
+        <v>8.493924905122618</v>
       </c>
       <c r="C34">
-        <v>8.978602458491103</v>
+        <v>8.451828751983411</v>
       </c>
       <c r="D34">
-        <v>8.763458566284884</v>
+        <v>8.736574131115994</v>
       </c>
       <c r="E34">
-        <v>8.582495791592049</v>
+        <v>8.462648971771635</v>
       </c>
       <c r="F34">
-        <v>8.619557247579491</v>
+        <v>8.409774813327619</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1054,19 +1054,19 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>8.630801036077109</v>
+        <v>8.522593216201697</v>
       </c>
       <c r="C35">
-        <v>9.02252249202609</v>
+        <v>8.480810575830761</v>
       </c>
       <c r="D35">
-        <v>8.788480563393211</v>
+        <v>8.769546648486045</v>
       </c>
       <c r="E35">
-        <v>8.60097620555908</v>
+        <v>8.490873566771256</v>
       </c>
       <c r="F35">
-        <v>8.638957772703519</v>
+        <v>8.436880594097</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1074,19 +1074,19 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>8.650255215213376</v>
+        <v>8.553210393312806</v>
       </c>
       <c r="C36">
-        <v>9.067309266040112</v>
+        <v>8.511982144500166</v>
       </c>
       <c r="D36">
-        <v>8.814599543717742</v>
+        <v>8.804035751621623</v>
       </c>
       <c r="E36">
-        <v>8.620481318827714</v>
+        <v>8.521329872861104</v>
       </c>
       <c r="F36">
-        <v>8.659211813106957</v>
+        <v>8.466300364635391</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1094,19 +1094,19 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>8.670725306223602</v>
+        <v>8.585807654499655</v>
       </c>
       <c r="C37">
-        <v>9.11291470162061</v>
+        <v>8.545376790168508</v>
       </c>
       <c r="D37">
-        <v>8.841836864869215</v>
+        <v>8.840059990165168</v>
       </c>
       <c r="E37">
-        <v>8.641024686767031</v>
+        <v>8.554060007154487</v>
       </c>
       <c r="F37">
-        <v>8.680328229362326</v>
+        <v>8.498077666970845</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1114,19 +1114,19 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>8.692227744165541</v>
+        <v>8.620414585834471</v>
       </c>
       <c r="C38">
-        <v>9.15929026672892</v>
+        <v>8.581025605617112</v>
       </c>
       <c r="D38">
-        <v>8.870212002789916</v>
+        <v>8.877636944711615</v>
       </c>
       <c r="E38">
-        <v>8.662617856739805</v>
+        <v>8.589103670750269</v>
       </c>
       <c r="F38">
-        <v>8.702314680870774</v>
+        <v>8.532253484905947</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1134,19 +1134,19 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>8.714777207026296</v>
+        <v>8.657059204869558</v>
       </c>
       <c r="C39">
-        <v>9.206386982132193</v>
+        <v>8.618957551607101</v>
       </c>
       <c r="D39">
-        <v>8.89974251096254</v>
+        <v>8.916783246535108</v>
       </c>
       <c r="E39">
-        <v>8.685270407069954</v>
+        <v>8.626498244529978</v>
       </c>
       <c r="F39">
-        <v>8.725177652387345</v>
+        <v>8.568866364060657</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1154,19 +1154,19 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>8.738386692948731</v>
+        <v>8.695768022587931</v>
       </c>
       <c r="C40">
-        <v>9.254155428313963</v>
+        <v>8.659199555340519</v>
       </c>
       <c r="D40">
-        <v>8.93044394075361</v>
+        <v>8.957514619225412</v>
       </c>
       <c r="E40">
-        <v>8.708989964068467</v>
+        <v>8.66627887919989</v>
       </c>
       <c r="F40">
-        <v>8.748922472922896</v>
+        <v>8.607952527337641</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1174,19 +1174,19 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>8.763067511834214</v>
+        <v>8.736566102596058</v>
       </c>
       <c r="C41">
-        <v>9.302545751382709</v>
+        <v>8.701776600625598</v>
       </c>
       <c r="D41">
-        <v>8.962329756295736</v>
+        <v>8.99984591028179</v>
       </c>
       <c r="E41">
-        <v>8.733782217188176</v>
+        <v>8.708478541538808</v>
       </c>
       <c r="F41">
-        <v>8.773553326328063</v>
+        <v>8.649545975920679</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1194,19 +1194,19 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>8.788829279434182</v>
+        <v>8.779477108314445</v>
       </c>
       <c r="C42">
-        <v>9.351507670112602</v>
+        <v>8.746711809620814</v>
       </c>
       <c r="D42">
-        <v>8.995411241615354</v>
+        <v>9.043791125182024</v>
       </c>
       <c r="E42">
-        <v>8.759650919249037</v>
+        <v>8.753128100059527</v>
       </c>
       <c r="F42">
-        <v>8.799073252339133</v>
+        <v>8.693678585510723</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1214,19 +1214,19 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>8.815679955800627</v>
+        <v>8.824523353303416</v>
       </c>
       <c r="C43">
-        <v>9.400990481940791</v>
+        <v>8.79402651552382</v>
       </c>
       <c r="D43">
-        <v>9.029697370342051</v>
+        <v>9.089363456778345</v>
       </c>
       <c r="E43">
-        <v>8.786597885186906</v>
+        <v>8.800256366604033</v>
       </c>
       <c r="F43">
-        <v>8.825484137909442</v>
+        <v>8.740380197419377</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1234,19 +1234,19 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>8.843625745814917</v>
+        <v>8.871725849190812</v>
       </c>
       <c r="C44">
-        <v>9.450943071726046</v>
+        <v>8.843740327981189</v>
       </c>
       <c r="D44">
-        <v>9.065194643470791</v>
+        <v>9.136575312913907</v>
       </c>
       <c r="E44">
-        <v>8.814622955399706</v>
+        <v>8.849890127162608</v>
       </c>
       <c r="F44">
-        <v>8.852786696341118</v>
+        <v>8.789678703951074</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1254,19 +1254,19 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>8.872671128428246</v>
+        <v>8.921104338431409</v>
       </c>
       <c r="C45">
-        <v>9.501313916302268</v>
+        <v>8.895871186146856</v>
       </c>
       <c r="D45">
-        <v>9.101906913192051</v>
+        <v>9.185438343271091</v>
       </c>
       <c r="E45">
-        <v>8.843723961771706</v>
+        <v>8.90205418737934</v>
       </c>
       <c r="F45">
-        <v>8.880980432420769</v>
+        <v>8.84160011947368</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1274,19 +1274,19 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>8.902818746648281</v>
+        <v>8.972677329586544</v>
       </c>
       <c r="C46">
-        <v>9.552051092318532</v>
+        <v>8.950435403401643</v>
       </c>
       <c r="D46">
-        <v>9.139835191675866</v>
+        <v>9.235963464905026</v>
       </c>
       <c r="E46">
-        <v>8.873896675805184</v>
+        <v>8.956771370040395</v>
       </c>
       <c r="F46">
-        <v>8.910063591676764</v>
+        <v>8.896168647647331</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1294,19 +1294,19 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>8.934069321400987</v>
+        <v>9.026462129845825</v>
       </c>
       <c r="C47">
-        <v>9.60310228226901</v>
+        <v>9.007447700433991</v>
       </c>
       <c r="D47">
-        <v>9.178977360549874</v>
+        <v>9.288160886144738</v>
       </c>
       <c r="E47">
-        <v>8.905134736644115</v>
+        <v>9.014062497520671</v>
       </c>
       <c r="F47">
-        <v>8.940033102310288</v>
+        <v>8.953406739027409</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1314,19 +1314,19 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>8.966421612042215</v>
+        <v>9.082474862599993</v>
       </c>
       <c r="C48">
-        <v>9.654414779583533</v>
+        <v>9.066921225775388</v>
       </c>
       <c r="D48">
-        <v>9.219327882143622</v>
+        <v>9.342040128388417</v>
       </c>
       <c r="E48">
-        <v>8.937429548398141</v>
+        <v>9.073946399894922</v>
       </c>
       <c r="F48">
-        <v>8.970884461578619</v>
+        <v>9.013335144264918</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1334,19 +1334,19 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>8.999872166870263</v>
+        <v>9.140730481387966</v>
       </c>
       <c r="C49">
-        <v>9.705935495990998</v>
+        <v>9.128867562284539</v>
       </c>
       <c r="D49">
-        <v>9.260877523417625</v>
+        <v>9.397610045690548</v>
       </c>
       <c r="E49">
-        <v>8.970770162047433</v>
+        <v>9.136439833529895</v>
       </c>
       <c r="F49">
-        <v>9.002611618893315</v>
+        <v>9.075972947585607</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1354,19 +1354,19 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>9.034415306726785</v>
+        <v>9.20124278019286</v>
       </c>
       <c r="C50">
-        <v>9.757610965139303</v>
+        <v>9.193296716999537</v>
       </c>
       <c r="D50">
-        <v>9.303612846861405</v>
+        <v>9.454878842069943</v>
       </c>
       <c r="E50">
-        <v>9.005143141556182</v>
+        <v>9.201557402265944</v>
       </c>
       <c r="F50">
-        <v>9.035206834957474</v>
+        <v>9.141337594930903</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1374,19 +1374,19 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>9.070042759759652</v>
+        <v>9.264024391290491</v>
       </c>
       <c r="C51">
-        <v>9.809387349867761</v>
+        <v>9.260217094459527</v>
       </c>
       <c r="D51">
-        <v>9.347515795745668</v>
+        <v>9.513854085590882</v>
       </c>
       <c r="E51">
-        <v>9.040532371438969</v>
+        <v>9.269311502915862</v>
       </c>
       <c r="F51">
-        <v>9.06866047858119</v>
+        <v>9.209444906218087</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1394,19 +1394,19 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>9.106743480033805</v>
+        <v>9.329086764806455</v>
       </c>
       <c r="C52">
-        <v>9.861210443635109</v>
+        <v>9.329635446004355</v>
       </c>
       <c r="D52">
-        <v>9.392563181239703</v>
+        <v>9.574542718452077</v>
       </c>
       <c r="E52">
-        <v>9.076918837887476</v>
+        <v>9.339712122089406</v>
       </c>
       <c r="F52">
-        <v>9.102960797506219</v>
+        <v>9.280309080652348</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1414,19 +1414,19 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>9.144663545234437</v>
+        <v>9.396440139970224</v>
       </c>
       <c r="C53">
-        <v>9.913090843684124</v>
+        <v>9.401556791964458</v>
       </c>
       <c r="D53">
-        <v>9.438853192329425</v>
+        <v>9.63695106221053</v>
       </c>
       <c r="E53">
-        <v>9.114465970822312</v>
+        <v>9.412766697008182</v>
       </c>
       <c r="F53">
-        <v>9.13827356427073</v>
+        <v>9.3539426678157</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1434,19 +1434,19 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>9.18455940848582</v>
+        <v>9.466093515485777</v>
       </c>
       <c r="C54">
-        <v>9.965282986334033</v>
+        <v>9.475984312837898</v>
       </c>
       <c r="D54">
-        <v>9.486968040705291</v>
+        <v>9.701084816447496</v>
       </c>
       <c r="E54">
-        <v>9.15404708494969</v>
+        <v>9.488479828962712</v>
       </c>
       <c r="F54">
-        <v>9.175457337977511</v>
+        <v>9.430356525144527</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1454,19 +1454,19 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>9.227287072082296</v>
+        <v>9.538054561495224</v>
       </c>
       <c r="C55">
-        <v>10.01807361410263</v>
+        <v>9.552919217386616</v>
       </c>
       <c r="D55">
-        <v>9.537561401721369</v>
+        <v>9.766949049076034</v>
       </c>
       <c r="E55">
-        <v>9.196645683757628</v>
+        <v>9.566852975882172</v>
       </c>
       <c r="F55">
-        <v>9.215483321276094</v>
+        <v>9.509559741012451</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1474,19 +1474,19 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>9.273634222551111</v>
+        <v>9.612329526840842</v>
       </c>
       <c r="C56">
-        <v>10.07171297668527</v>
+        <v>9.632360546201687</v>
       </c>
       <c r="D56">
-        <v>9.591223249808621</v>
+        <v>9.834548170371862</v>
       </c>
       <c r="E56">
-        <v>9.243163172619527</v>
+        <v>9.647884089362432</v>
       </c>
       <c r="F56">
-        <v>9.259249769220125</v>
+        <v>9.591559542794119</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1494,19 +1494,19 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>9.324321209154741</v>
+        <v>9.688923137312919</v>
       </c>
       <c r="C57">
-        <v>10.12641721229618</v>
+        <v>9.714304927235412</v>
       </c>
       <c r="D57">
-        <v>9.648476089904182</v>
+        <v>9.903885895253278</v>
       </c>
       <c r="E57">
-        <v>9.294419892822585</v>
+        <v>9.73156712726589</v>
       </c>
       <c r="F57">
-        <v>9.307582157778054</v>
+        <v>9.676361123512947</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1514,19 +1514,19 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>9.380000101131404</v>
+        <v>9.767838402316601</v>
       </c>
       <c r="C58">
-        <v>10.18236913815366</v>
+        <v>9.798746265080219</v>
       </c>
       <c r="D58">
-        <v>9.709770157099998</v>
+        <v>9.974965172007989</v>
       </c>
       <c r="E58">
-        <v>9.351154475063161</v>
+        <v>9.81789144391953</v>
       </c>
       <c r="F58">
-        <v>9.361231619257067</v>
+        <v>9.763967429396585</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1534,19 +1534,19 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>9.441253052782839</v>
+        <v>9.849076394584941</v>
       </c>
       <c r="C59">
-        <v>10.23972047048455</v>
+        <v>9.88567535393473</v>
       </c>
       <c r="D59">
-        <v>9.77547828998067</v>
+        <v>10.04778807620625</v>
       </c>
       <c r="E59">
-        <v>9.414022293776812</v>
+        <v>9.906841038580414</v>
       </c>
       <c r="F59">
-        <v>9.420872005959311</v>
+        <v>9.854378850819073</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1554,19 +1554,19 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>9.508589636302743</v>
+        <v>9.932635918531473</v>
       </c>
       <c r="C60">
-        <v>10.29859283883446</v>
+        <v>9.975079378213433</v>
       </c>
       <c r="D60">
-        <v>9.845890103823752</v>
+        <v>10.1223556430459</v>
       </c>
       <c r="E60">
-        <v>9.483592625486015</v>
+        <v>9.998393633341143</v>
       </c>
       <c r="F60">
-        <v>9.487095306371858</v>
+        <v>9.947592925057654</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1574,19 +1574,19 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>9.582443234784934</v>
+        <v>10.01851311322216</v>
       </c>
       <c r="C61">
-        <v>10.35907903448945</v>
+        <v>10.06694129747132</v>
       </c>
       <c r="D61">
-        <v>9.921205790537394</v>
+        <v>10.19866761311991</v>
       </c>
       <c r="E61">
-        <v>9.560344538370702</v>
+        <v>10.09251954189035</v>
       </c>
       <c r="F61">
-        <v>9.560405231762294</v>
+        <v>10.04360363663513</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1594,19 +1594,19 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>9.663166435638113</v>
+        <v>10.1067009217315</v>
       </c>
       <c r="C62">
-        <v>10.42124428264756</v>
+        <v>10.16123907439602</v>
       </c>
       <c r="D62">
-        <v>10.00153059474099</v>
+        <v>10.27672205156225</v>
       </c>
       <c r="E62">
-        <v>9.644661234381401</v>
+        <v>10.18918030904166</v>
       </c>
       <c r="F62">
-        <v>9.64120905203742</v>
+        <v>10.14240074842763</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1614,19 +1614,19 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>9.751025262791178</v>
+        <v>10.19718840744488</v>
       </c>
       <c r="C63">
-        <v>10.48512738592409</v>
+        <v>10.25794471468957</v>
       </c>
       <c r="D63">
-        <v>10.08686936762259</v>
+        <v>10.35651477582951</v>
       </c>
       <c r="E63">
-        <v>9.736822713077487</v>
+        <v>10.28832705864207</v>
       </c>
       <c r="F63">
-        <v>9.729806885740345</v>
+        <v>10.24396883964565</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1634,19 +1634,19 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>9.846192399081701</v>
+        <v>10.28995970734515</v>
       </c>
       <c r="C64">
-        <v>10.55074178786587</v>
+        <v>10.35702307678346</v>
       </c>
       <c r="D64">
-        <v>10.17712256539242</v>
+        <v>10.43803852287668</v>
       </c>
       <c r="E64">
-        <v>9.836996624089048</v>
+        <v>10.38989850171852</v>
       </c>
       <c r="F64">
-        <v>9.826379864681439</v>
+        <v>10.34828600656037</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1654,19 +1654,19 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>9.948739448102588</v>
+        <v>10.38499277723959</v>
       </c>
       <c r="C65">
-        <v>10.61807659027695</v>
+        <v>10.45843046759623</v>
       </c>
       <c r="D65">
-        <v>10.27208419416177</v>
+        <v>10.52128174833401</v>
       </c>
       <c r="E65">
-        <v>9.945227357188511</v>
+        <v>10.49381861069946</v>
       </c>
       <c r="F65">
-        <v>9.930976692435276</v>
+        <v>10.45532196512893</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1674,19 +1674,19 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>10.05862851261518</v>
+        <v>10.48225768041176</v>
       </c>
       <c r="C66">
-        <v>10.68709746906374</v>
+        <v>10.56211268548991</v>
       </c>
       <c r="D66">
-        <v>10.37144254922094</v>
+        <v>10.60622693940426</v>
       </c>
       <c r="E66">
-        <v>10.0614237189235</v>
+        <v>10.59999391622843</v>
       </c>
       <c r="F66">
-        <v>10.04350005845276</v>
+        <v>10.56503566827472</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1694,19 +1694,19 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>10.17570363421685</v>
+        <v>10.58171428805809</v>
       </c>
       <c r="C67">
-        <v>10.75774773175886</v>
+        <v>10.66800287282413</v>
       </c>
       <c r="D67">
-        <v>10.47478463600803</v>
+        <v>10.6928483013282</v>
       </c>
       <c r="E67">
-        <v>10.18534601710262</v>
+        <v>10.70831045790212</v>
       </c>
       <c r="F67">
-        <v>10.16369443070461</v>
+        <v>10.67737204899521</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1714,19 +1714,19 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>10.29968281541618</v>
+        <v>10.68330920666062</v>
       </c>
       <c r="C68">
-        <v>10.82994931807712</v>
+        <v>10.7760188603641</v>
       </c>
       <c r="D68">
-        <v>10.58160489768095</v>
+        <v>10.78110865206641</v>
       </c>
       <c r="E68">
-        <v>10.31659408253289</v>
+        <v>10.81863039435116</v>
       </c>
       <c r="F68">
-        <v>10.29113724746821</v>
+        <v>10.79225763981664</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1734,19 +1734,19 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>10.43015167585877</v>
+        <v>10.78697174736327</v>
       </c>
       <c r="C69">
-        <v>10.90360368947374</v>
+        <v>10.8860599424991</v>
       </c>
       <c r="D69">
-        <v>10.69131860667528</v>
+        <v>10.87095538397308</v>
       </c>
       <c r="E69">
-        <v>10.45459858847071</v>
+        <v>10.93078824478468</v>
       </c>
       <c r="F69">
-        <v>10.42523593431419</v>
+        <v>10.9095948414951</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1754,19 +1754,19 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>10.56656009307824</v>
+        <v>10.89260878057304</v>
       </c>
       <c r="C70">
-        <v>10.97859268819362</v>
+        <v>10.99800302258909</v>
       </c>
       <c r="D70">
-        <v>10.80327969769472</v>
+        <v>10.96231534509022</v>
       </c>
       <c r="E70">
-        <v>10.5986187720684</v>
+        <v>11.04458739496097</v>
       </c>
       <c r="F70">
-        <v>10.56523304391905</v>
+        <v>11.02925459021584</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1774,19 +1774,19 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>10.7082234609476</v>
+        <v>11.00009818896351</v>
       </c>
       <c r="C71">
-        <v>11.05477945169904</v>
+        <v>11.11169820071036</v>
       </c>
       <c r="D71">
-        <v>10.91680226230939</v>
+        <v>11.05508861654396</v>
       </c>
       <c r="E71">
-        <v>10.74774987057904</v>
+        <v>11.15979666428911</v>
       </c>
       <c r="F71">
-        <v>10.71022123265282</v>
+        <v>11.15106717318738</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1794,19 +1794,19 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>10.85433000263754</v>
+        <v>11.10928097411605</v>
       </c>
       <c r="C72">
-        <v>11.13200940550158</v>
+        <v>11.22696380006077</v>
       </c>
       <c r="D72">
-        <v>11.03118423114858</v>
+        <v>11.1491413195067</v>
       </c>
       <c r="E72">
-        <v>10.9009428800334</v>
+        <v>11.27614735074613</v>
       </c>
       <c r="F72">
-        <v>10.8591684522687</v>
+        <v>11.27481139903403</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1814,19 +1814,19 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>11.0039553947172</v>
+        <v>11.219952095587</v>
       </c>
       <c r="C73">
-        <v>11.21011132012612</v>
+        <v>11.34358094420991</v>
       </c>
       <c r="D73">
-        <v>11.14573137265912</v>
+        <v>11.24429793224499</v>
       </c>
       <c r="E73">
-        <v>11.05703732486772</v>
+        <v>11.39333131744863</v>
       </c>
       <c r="F73">
-        <v>11.01095245762258</v>
+        <v>11.40020252451063</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1834,19 +1834,19 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>11.15608525824124</v>
+        <v>11.33185100942892</v>
       </c>
       <c r="C74">
-        <v>11.28889843517466</v>
+        <v>11.46128800298392</v>
       </c>
       <c r="D74">
-        <v>11.25977957124128</v>
+        <v>11.34033389860137</v>
       </c>
       <c r="E74">
-        <v>11.21480498697254</v>
+        <v>11.51100059288528</v>
       </c>
       <c r="F74">
-        <v>11.16440171134765</v>
+        <v>11.52688022996169</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -1854,19 +1854,19 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>11.30964470103677</v>
+        <v>11.44465284127991</v>
       </c>
       <c r="C75">
-        <v>11.36816967500037</v>
+        <v>11.57977542145045</v>
       </c>
       <c r="D75">
-        <v>11.37271358002184</v>
+        <v>11.43697000656691</v>
       </c>
       <c r="E75">
-        <v>11.37299999569171</v>
+        <v>11.62876891803789</v>
       </c>
       <c r="F75">
-        <v>11.3183388703385</v>
+        <v>11.65439875706186</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -1874,19 +1874,19 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>11.46353322169479</v>
+        <v>11.5579622033064</v>
       </c>
       <c r="C76">
-        <v>11.44771108538305</v>
+        <v>11.69868173266556</v>
       </c>
       <c r="D76">
-        <v>11.48398099058606</v>
+        <v>11.53387021200718</v>
       </c>
       <c r="E76">
-        <v>11.53040893336905</v>
+        <v>11.74621552670966</v>
       </c>
       <c r="F76">
-        <v>11.47162252876137</v>
+        <v>11.78222208925379</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -1894,19 +1894,19 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>11.61666202164124</v>
+        <v>11.67131209998016</v>
       </c>
       <c r="C77">
-        <v>11.52729745409633</v>
+        <v>11.81759155380547</v>
       </c>
       <c r="D77">
-        <v>11.59310087467536</v>
+        <v>11.63064470786614</v>
       </c>
       <c r="E77">
-        <v>11.68589514724684</v>
+        <v>11.86289146855725</v>
       </c>
       <c r="F77">
-        <v>11.62318335748292</v>
+        <v>11.90972718747786</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -1914,19 +1914,19 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>11.76798981042897</v>
+        <v>11.78417010134005</v>
       </c>
       <c r="C78">
-        <v>11.60669419522395</v>
+        <v>11.93603678467447</v>
       </c>
       <c r="D78">
-        <v>11.69966728845301</v>
+        <v>11.72685949431284</v>
       </c>
       <c r="E78">
-        <v>11.83843290385335</v>
+        <v>11.9783283706691</v>
       </c>
       <c r="F78">
-        <v>11.77205195410059</v>
+        <v>12.03621800127198</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -1934,19 +1934,19 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>11.91655426615052</v>
+        <v>11.89595311870434</v>
       </c>
       <c r="C79">
-        <v>11.68565954787719</v>
+        <v>12.05350205679175</v>
       </c>
       <c r="D79">
-        <v>11.80334832248839</v>
+        <v>11.82205229575724</v>
       </c>
       <c r="E79">
-        <v>11.98712935297947</v>
+        <v>12.09204911871749</v>
       </c>
       <c r="F79">
-        <v>11.91737729363442</v>
+        <v>12.16095071727596</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -1954,19 +1954,19 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>12.06149613844683</v>
+        <v>12.00605033467973</v>
       </c>
       <c r="C80">
-        <v>11.76394711093177</v>
+        <v>12.16943512920347</v>
       </c>
       <c r="D80">
-        <v>11.90388181869866</v>
+        <v>11.91575329760496</v>
       </c>
       <c r="E80">
-        <v>12.13123463028028</v>
+        <v>12.2035800521235</v>
       </c>
       <c r="F80">
-        <v>12.0584358963175</v>
+        <v>12.28316803537597</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -1974,19 +1974,19 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>12.20207482173414</v>
+        <v>12.11385150197331</v>
       </c>
       <c r="C81">
-        <v>11.84130873797647</v>
+        <v>12.28326226637014</v>
       </c>
       <c r="D81">
-        <v>12.00106883840771</v>
+        <v>12.00750747414194</v>
       </c>
       <c r="E81">
-        <v>12.27014189943735</v>
+        <v>12.31246304183577</v>
       </c>
       <c r="F81">
-        <v>12.19463297324464</v>
+        <v>12.40213745984404</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -1994,19 +1994,19 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>12.33767531144439</v>
+        <v>12.21877632606476</v>
       </c>
       <c r="C82">
-        <v>11.9174977593963</v>
+        <v>12.39440759480606</v>
       </c>
       <c r="D82">
-        <v>12.09476594406155</v>
+        <v>12.09689503753464</v>
       </c>
       <c r="E82">
-        <v>12.40337999861826</v>
+        <v>12.41826713692987</v>
       </c>
       <c r="F82">
-        <v>12.32549737349478</v>
+        <v>12.51718733710581</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2014,19 +2014,19 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>12.46780756258973</v>
+        <v>12.32030028275834</v>
       </c>
       <c r="C83">
-        <v>11.99227244027737</v>
+        <v>12.50231466028202</v>
       </c>
       <c r="D83">
-        <v>12.18487713513875</v>
+        <v>12.18354709817161</v>
       </c>
       <c r="E83">
-        <v>12.53060129070627</v>
+        <v>12.52059877899013</v>
       </c>
       <c r="F83">
-        <v>12.45067221285483</v>
+        <v>12.6277350919805</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2034,19 +2034,19 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>12.59209996830683</v>
+        <v>12.41797336165762</v>
       </c>
       <c r="C84">
-        <v>12.0653995868104</v>
+        <v>12.60646755012181</v>
       </c>
       <c r="D84">
-        <v>12.27134603641929</v>
+        <v>12.26715502991986</v>
       </c>
       <c r="E84">
-        <v>12.65156702718088</v>
+        <v>12.61910955921676</v>
       </c>
       <c r="F84">
-        <v>12.56990297239865</v>
+        <v>12.73330448112256</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2054,19 +2054,19 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>12.71028883670141</v>
+        <v>12.51143026458471</v>
       </c>
       <c r="C85">
-        <v>12.13665809537643</v>
+        <v>12.70640909829464</v>
       </c>
       <c r="D85">
-        <v>12.35414873583251</v>
+        <v>12.34747363143477</v>
       </c>
       <c r="E85">
-        <v>12.76613193826717</v>
+        <v>12.71350145717944</v>
       </c>
       <c r="F85">
-        <v>12.68302448366995</v>
+        <v>12.83353157757258</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2074,19 +2074,19 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>12.82220455852968</v>
+        <v>12.60039246139684</v>
       </c>
       <c r="C86">
-        <v>12.20583769786158</v>
+        <v>12.80175411671658</v>
       </c>
       <c r="D86">
-        <v>12.43328736323399</v>
+        <v>12.42431917019226</v>
       </c>
       <c r="E86">
-        <v>12.87422843805473</v>
+        <v>12.80352945521009</v>
       </c>
       <c r="F86">
-        <v>12.78994671720961</v>
+        <v>12.92816124360156</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2094,19 +2094,19 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>12.92775548289556</v>
+        <v>12.68466388762928</v>
       </c>
       <c r="C87">
-        <v>12.27273279818687</v>
+        <v>12.8921966638247</v>
       </c>
       <c r="D87">
-        <v>12.50878452607188</v>
+        <v>12.49756402960567</v>
       </c>
       <c r="E87">
-        <v>12.97585104452077</v>
+        <v>12.88900170711276</v>
       </c>
       <c r="F87">
-        <v>12.89064141545712</v>
+        <v>13.01703718410879</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2114,19 +2114,19 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>13.02691972035474</v>
+        <v>12.76412258555511</v>
       </c>
       <c r="C88">
-        <v>12.33715921198492</v>
+        <v>12.97751157223797</v>
       </c>
       <c r="D88">
-        <v>12.58067898147827</v>
+        <v>12.56712947728058</v>
       </c>
       <c r="E88">
-        <v>13.07104755673807</v>
+        <v>12.96977770487278</v>
       </c>
       <c r="F88">
-        <v>12.98513295355594</v>
+        <v>13.10008843084439</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2134,19 +2134,19 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>13.11973333089983</v>
+        <v>12.83871025177224</v>
       </c>
       <c r="C89">
-        <v>12.39896054742236</v>
+        <v>13.05755088214244</v>
       </c>
       <c r="D89">
-        <v>12.64902201572775</v>
+        <v>12.63297784446349</v>
       </c>
       <c r="E89">
-        <v>13.15990859498221</v>
+        <v>13.04576489120132</v>
       </c>
       <c r="F89">
-        <v>13.07349032030387</v>
+        <v>13.17731469726812</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2154,19 +2154,19 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>13.20627869144622</v>
+        <v>12.90842132103161</v>
       </c>
       <c r="C90">
-        <v>12.45800765534999</v>
+        <v>13.13223687689778</v>
       </c>
       <c r="D90">
-        <v>12.71387431703255</v>
+        <v>12.69510497848788</v>
       </c>
       <c r="E90">
-        <v>13.24255841035849</v>
+        <v>13.11691428292797</v>
       </c>
       <c r="F90">
-        <v>13.15581684746733</v>
+        <v>13.24877226262726</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2174,19 +2174,19 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>13.28667349645877</v>
+        <v>12.97329261035222</v>
       </c>
       <c r="C91">
-        <v>12.51419711319544</v>
+        <v>13.20155302818137</v>
       </c>
       <c r="D91">
-        <v>12.77530336195635</v>
+        <v>12.75353337726609</v>
       </c>
       <c r="E91">
-        <v>13.31914611154752</v>
+        <v>13.1832155619376</v>
       </c>
       <c r="F91">
-        <v>13.23224314678063</v>
+        <v>13.31456118403214</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2194,19 +2194,19 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>13.36106288855056</v>
+        <v>13.03339410059846</v>
       </c>
       <c r="C92">
-        <v>12.5674498092601</v>
+        <v>13.26553408025436</v>
       </c>
       <c r="D92">
-        <v>12.8333814884397</v>
+        <v>12.80830630131622</v>
       </c>
       <c r="E92">
-        <v>13.38983959625913</v>
+        <v>13.24469192790461</v>
       </c>
       <c r="F92">
-        <v>13.30291973825549</v>
+        <v>13.37481443421748</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2214,19 +2214,19 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>13.42961213597555</v>
+        <v>13.08882101240303</v>
       </c>
       <c r="C93">
-        <v>12.61770910826655</v>
+        <v>13.32425631872311</v>
       </c>
       <c r="D93">
-        <v>12.88818439136639</v>
+        <v>12.85948280739352</v>
       </c>
       <c r="E93">
-        <v>13.45482017158228</v>
+        <v>13.30139499504652</v>
       </c>
       <c r="F93">
-        <v>13.36801183761956</v>
+        <v>13.42968875806317</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2234,19 +2234,19 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>13.4925002258346</v>
+        <v>13.13968723288692</v>
       </c>
       <c r="C94">
-        <v>12.66493867862699</v>
+        <v>13.37782855580116</v>
       </c>
       <c r="D94">
-        <v>12.93978997185602</v>
+        <v>12.9071336827515</v>
       </c>
       <c r="E94">
-        <v>13.51427734984185</v>
+        <v>13.35340001867142</v>
       </c>
       <c r="F94">
-        <v>13.42769527505379</v>
+        <v>13.47935725371375</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2254,19 +2254,19 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>13.54991618757951</v>
+        <v>13.18611989512911</v>
       </c>
       <c r="C95">
-        <v>12.70912041914284</v>
+        <v>13.42638421824876</v>
       </c>
       <c r="D95">
-        <v>12.98827720211331</v>
+        <v>12.95133830990756</v>
       </c>
       <c r="E95">
-        <v>13.56840650352829</v>
+        <v>13.40080149662269</v>
       </c>
       <c r="F95">
-        <v>13.48215261177783</v>
+        <v>13.52400379925786</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2274,19 +2274,19 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>13.60205479417408</v>
+        <v>13.22825516377002</v>
       </c>
       <c r="C96">
-        <v>12.75025231272617</v>
+        <v>13.47007459926318</v>
       </c>
       <c r="D96">
-        <v>13.03372542292275</v>
+        <v>12.99218206046718</v>
       </c>
       <c r="E96">
-        <v>13.61740555571155</v>
+        <v>13.44370923455326</v>
       </c>
       <c r="F96">
-        <v>13.53157005628359</v>
+        <v>13.56381844554932</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2294,19 +2294,19 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>13.64911363315532</v>
+        <v>13.26623500467833</v>
       </c>
       <c r="C97">
-        <v>12.78834635535509</v>
+        <v>13.50906325658943</v>
       </c>
       <c r="D97">
-        <v>13.0762138998249</v>
+        <v>13.02975422933965</v>
       </c>
       <c r="E97">
-        <v>13.66147277271792</v>
+        <v>13.48224487376356</v>
       </c>
       <c r="F97">
-        <v>13.57613535404461</v>
+        <v>13.59899387194012</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2314,19 +2314,19 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>13.69129091235759</v>
+        <v>13.30020449096265</v>
       </c>
       <c r="C98">
-        <v>12.82342661187035</v>
+        <v>13.54352153000672</v>
       </c>
       <c r="D98">
-        <v>13.11582136144163</v>
+        <v>13.06414649521784</v>
       </c>
       <c r="E98">
-        <v>13.70080519167921</v>
+        <v>13.51653883589752</v>
       </c>
       <c r="F98">
-        <v>13.61603615288874</v>
+        <v>13.62972274660538</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2334,19 +2334,19 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>13.72878354191344</v>
+        <v>13.33030972481544</v>
       </c>
       <c r="C99">
-        <v>12.85552743280302</v>
+        <v>13.57362495905466</v>
       </c>
       <c r="D99">
-        <v>13.15262564310043</v>
+        <v>13.09545172193143</v>
       </c>
       <c r="E99">
-        <v>13.7355972208702</v>
+        <v>13.54672779527044</v>
       </c>
       <c r="F99">
-        <v>13.65145837822373</v>
+        <v>13.65619575518639</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2354,19 +2354,19 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>13.7617854442173</v>
+        <v>13.35669632674808</v>
       </c>
       <c r="C100">
-        <v>12.88469184440098</v>
+        <v>13.59955048503386</v>
       </c>
       <c r="D100">
-        <v>13.18670344912086</v>
+        <v>13.12376299084662</v>
       </c>
       <c r="E100">
-        <v>13.76603954176871</v>
+        <v>13.5729525489094</v>
       </c>
       <c r="F100">
-        <v>13.68258507200819</v>
+        <v>13.67860015151613</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2374,19 +2374,19 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>13.79048701415341</v>
+        <v>13.37950828116804</v>
       </c>
       <c r="C101">
-        <v>12.91097009673069</v>
+        <v>13.62147431996207</v>
       </c>
       <c r="D101">
-        <v>13.21812999192789</v>
+        <v>13.14917290353614</v>
       </c>
       <c r="E101">
-        <v>13.79231841411119</v>
+        <v>13.59535622622973</v>
       </c>
       <c r="F101">
-        <v>13.70959557365346</v>
+        <v>13.69711869195482</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2394,19 +2394,19 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>13.81507416837094</v>
+        <v>13.39888707490455</v>
       </c>
       <c r="C102">
-        <v>12.9344183662243</v>
+        <v>13.63957032743326</v>
       </c>
       <c r="D102">
-        <v>13.24697916956456</v>
+        <v>13.17177305692469</v>
       </c>
       <c r="E102">
-        <v>13.81461513892806</v>
+        <v>13.61408276076592</v>
       </c>
       <c r="F102">
-        <v>13.73266489581398</v>
+        <v>13.71192887510153</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2414,19 +2414,19 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>13.83572761661086</v>
+        <v>13.41497104763739</v>
       </c>
       <c r="C103">
-        <v>12.95509761272319</v>
+        <v>13.65400882777884</v>
       </c>
       <c r="D103">
-        <v>13.27332336367703</v>
+        <v>13.19165363438864</v>
       </c>
       <c r="E103">
-        <v>13.83310561249091</v>
+        <v>13.62927566848773</v>
       </c>
       <c r="F103">
-        <v>13.75196324435223</v>
+        <v>13.72320244420211</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2434,19 +2434,19 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>13.85262244104873</v>
+        <v>13.42789494363238</v>
       </c>
       <c r="C104">
-        <v>12.97307257809006</v>
+        <v>13.66495574001911</v>
       </c>
       <c r="D104">
-        <v>13.29723334805244</v>
+        <v>13.20890310756711</v>
       </c>
       <c r="E104">
-        <v>13.84796006558026</v>
+        <v>13.64107708400203</v>
       </c>
       <c r="F104">
-        <v>13.76765566159062</v>
+        <v>13.73110509544004</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2454,19 +2454,19 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>13.8659279350493</v>
+        <v>13.4377896020876</v>
       </c>
       <c r="C105">
-        <v>12.98841091909106</v>
+        <v>13.67257198041236</v>
       </c>
       <c r="D105">
-        <v>13.31877820524385</v>
+        <v>13.22360802356558</v>
       </c>
       <c r="E105">
-        <v>13.85934271952923</v>
+        <v>13.64962699381167</v>
       </c>
       <c r="F105">
-        <v>13.77990180320514</v>
+        <v>13.73579629626963</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2474,19 +2474,19 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>13.87580746830109</v>
+        <v>13.44478173824456</v>
       </c>
       <c r="C106">
-        <v>13.00118245389591</v>
+        <v>13.67701307012848</v>
       </c>
       <c r="D106">
-        <v>13.3380253745455</v>
+        <v>13.23585285695895</v>
       </c>
       <c r="E106">
-        <v>13.86741194199616</v>
+        <v>13.65506258197764</v>
       </c>
       <c r="F106">
-        <v>13.78885582515092</v>
+        <v>13.7374292085647</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2494,19 +2494,19 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>13.88241836845113</v>
+        <v>13.44899383897576</v>
       </c>
       <c r="C107">
-        <v>13.01145850994749</v>
+        <v>13.67842886169889</v>
       </c>
       <c r="D107">
-        <v>13.35504055794068</v>
+        <v>13.24571991015459</v>
       </c>
       <c r="E107">
-        <v>13.87232018924211</v>
+        <v>13.65751777861759</v>
       </c>
       <c r="F107">
-        <v>13.79466631114345</v>
+        <v>13.73615070638597</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2514,19 +2514,19 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>13.8859118931519</v>
+        <v>13.45054411127457</v>
       </c>
       <c r="C108">
-        <v>13.01931136758071</v>
+        <v>13.67696343642075</v>
       </c>
       <c r="D108">
-        <v>13.3698877982369</v>
+        <v>13.25328925157309</v>
       </c>
       <c r="E108">
-        <v>13.87421397906623</v>
+        <v>13.65712290659149</v>
       </c>
       <c r="F108">
-        <v>13.79747624110485</v>
+        <v>13.73210145266993</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2534,19 +2534,19 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>13.88643328622578</v>
+        <v>13.44954647116603</v>
       </c>
       <c r="C109">
-        <v>13.02481378120079</v>
+        <v>13.67275508934642</v>
       </c>
       <c r="D109">
-        <v>13.38262946197612</v>
+        <v>13.25863868556253</v>
       </c>
       <c r="E109">
-        <v>13.87323395115524</v>
+        <v>13.65400442250937</v>
       </c>
       <c r="F109">
-        <v>13.79742305899351</v>
+        <v>13.72541601635419</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2554,19 +2554,19 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>13.88412188623349</v>
+        <v>13.44611057382385</v>
       </c>
       <c r="C110">
-        <v>13.02803857130462</v>
+        <v>13.66593635414577</v>
       </c>
       <c r="D110">
-        <v>13.39332628749525</v>
+        <v>13.26184373270269</v>
       </c>
       <c r="E110">
-        <v>13.86951495975281</v>
+        <v>13.64828473079568</v>
       </c>
       <c r="F110">
-        <v>13.79463874640483</v>
+        <v>13.71622302311542</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2574,19 +2574,19 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>13.87911116546251</v>
+        <v>13.44034187638569</v>
       </c>
       <c r="C111">
-        <v>13.02905828012869</v>
+        <v>13.6566340619</v>
       </c>
       <c r="D111">
-        <v>13.40203740087899</v>
+        <v>13.2629776463869</v>
       </c>
       <c r="E111">
-        <v>13.86318621018903</v>
+        <v>13.64008206759221</v>
       </c>
       <c r="F111">
-        <v>13.78924993474705</v>
+        <v>13.70464531246204</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2594,19 +2594,19 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>13.87152903737161</v>
+        <v>13.43234172086079</v>
       </c>
       <c r="C112">
-        <v>13.02794488204121</v>
+        <v>13.64496948377337</v>
       </c>
       <c r="D112">
-        <v>13.40882033560302</v>
+        <v>13.26211143636006</v>
       </c>
       <c r="E112">
-        <v>13.85437142891724</v>
+        <v>13.62951044089758</v>
       </c>
       <c r="F112">
-        <v>13.78137800048735</v>
+        <v>13.69080013950975</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -2614,19 +2614,19 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>13.86149789898439</v>
+        <v>13.42220743386285</v>
       </c>
       <c r="C113">
-        <v>13.02476954055141</v>
+        <v>13.63105847550456</v>
       </c>
       <c r="D113">
-        <v>13.41373106227524</v>
+        <v>13.25931390427485</v>
       </c>
       <c r="E113">
-        <v>13.84318902650472</v>
+        <v>13.61667961472807</v>
       </c>
       <c r="F113">
-        <v>13.77113920388996</v>
+        <v>13.67479937205633</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -2634,19 +2634,19 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>13.84913481819209</v>
+        <v>13.41003242791783</v>
       </c>
       <c r="C114">
-        <v>13.0196024059189</v>
+        <v>13.61501164592678</v>
       </c>
       <c r="D114">
-        <v>13.41682401413724</v>
+        <v>13.25465168011278</v>
       </c>
       <c r="E114">
-        <v>13.82975225194134</v>
+        <v>13.60169512713149</v>
       </c>
       <c r="F114">
-        <v>13.75864484773242</v>
+        <v>13.65674969726515</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -2654,19 +2654,19 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>13.83455169224013</v>
+        <v>13.39590631116003</v>
       </c>
       <c r="C115">
-        <v>13.01251244864618</v>
+        <v>13.59693453222785</v>
       </c>
       <c r="D115">
-        <v>13.41815212692924</v>
+        <v>13.24818925536136</v>
       </c>
       <c r="E115">
-        <v>13.81416936719722</v>
+        <v>13.58465833425741</v>
       </c>
       <c r="F115">
-        <v>13.74400143055922</v>
+        <v>13.63675281980776</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -2674,19 +2674,19 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>13.81785540819</v>
+        <v>13.37991502620384</v>
       </c>
       <c r="C116">
-        <v>13.0035673244646</v>
+        <v>13.57692778410755</v>
       </c>
       <c r="D116">
-        <v>13.41776686865365</v>
+        <v>13.23998904418709</v>
       </c>
       <c r="E116">
-        <v>13.7965437888787</v>
+        <v>13.5656664775277</v>
       </c>
       <c r="F116">
-        <v>13.72731080779061</v>
+        <v>13.61490564961948</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -2694,19 +2694,19 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>13.79914806723351</v>
+        <v>13.36214096765495</v>
       </c>
       <c r="C117">
-        <v>12.99283327454912</v>
+        <v>13.55508735197133</v>
       </c>
       <c r="D117">
-        <v>13.41571828194242</v>
+        <v>13.23011143111978</v>
       </c>
       <c r="E117">
-        <v>13.77697430967279</v>
+        <v>13.54481276855874</v>
       </c>
       <c r="F117">
-        <v>13.70867035405508</v>
+        <v>13.59130052181076</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -2714,19 +2714,19 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>13.7785271448187</v>
+        <v>13.34266310745653</v>
       </c>
       <c r="C118">
-        <v>12.98037502117625</v>
+        <v>13.5315046765457</v>
       </c>
       <c r="D118">
-        <v>13.41205501592786</v>
+        <v>13.21861482538662</v>
       </c>
       <c r="E118">
-        <v>13.7555552639225</v>
+        <v>13.52218648898854</v>
       </c>
       <c r="F118">
-        <v>13.68817312699859</v>
+        <v>13.5660253862835</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -2734,19 +2734,19 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>13.75608569948881</v>
+        <v>13.3215571131547</v>
       </c>
       <c r="C119">
-        <v>12.96625569880758</v>
+        <v>13.50626687790304</v>
       </c>
       <c r="D119">
-        <v>13.40682436390215</v>
+        <v>13.2055557152672</v>
       </c>
       <c r="E119">
-        <v>13.73237669955022</v>
+        <v>13.49787309683327</v>
       </c>
       <c r="F119">
-        <v>13.66590802990473</v>
+        <v>13.53916400269263</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -2754,19 +2754,19 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>13.73191252991015</v>
+        <v>13.29889546619727</v>
       </c>
       <c r="C120">
-        <v>12.9505368308827</v>
+        <v>13.47945693863022</v>
       </c>
       <c r="D120">
-        <v>13.40007229714445</v>
+        <v>13.19098872278831</v>
       </c>
       <c r="E120">
-        <v>13.70752455023291</v>
+        <v>13.47195433608573</v>
       </c>
       <c r="F120">
-        <v>13.64195997311709</v>
+        <v>13.51079612676618</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -2774,19 +2774,19 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>13.70609234658479</v>
+        <v>13.27474759498006</v>
       </c>
       <c r="C121">
-        <v>12.93327827094184</v>
+        <v>13.45115388137243</v>
       </c>
       <c r="D121">
-        <v>13.39184349758687</v>
+        <v>13.17496665878186</v>
       </c>
       <c r="E121">
-        <v>13.6810807869386</v>
+        <v>13.44450835051652</v>
       </c>
       <c r="F121">
-        <v>13.61641003337131</v>
+        <v>13.48099768638361</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -2794,19 +2794,19 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>13.67870594539648</v>
+        <v>13.24917998684793</v>
       </c>
       <c r="C122">
-        <v>12.91453820331395</v>
+        <v>13.42143294617779</v>
       </c>
       <c r="D122">
-        <v>13.38218139262821</v>
+        <v>13.15754057724803</v>
       </c>
       <c r="E122">
-        <v>13.6531236028734</v>
+        <v>13.41560982494348</v>
       </c>
       <c r="F122">
-        <v>13.58933560857409</v>
+        <v>13.4498409692576</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -2814,19 +2814,19 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>13.64983037655844</v>
+        <v>13.2222563064018</v>
       </c>
       <c r="C123">
-        <v>12.89437313464896</v>
+        <v>13.39036577273473</v>
       </c>
       <c r="D123">
-        <v>13.37112818601444</v>
+        <v>13.13875982539811</v>
       </c>
       <c r="E123">
-        <v>13.62372756220467</v>
+        <v>13.38533010275966</v>
       </c>
       <c r="F123">
-        <v>13.56081057365137</v>
+        <v>13.41739476828944</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -2834,19 +2834,19 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>13.61953910438634</v>
+        <v>13.19403750934179</v>
       </c>
       <c r="C124">
-        <v>12.87283786406212</v>
+        <v>13.35802055355108</v>
       </c>
       <c r="D124">
-        <v>13.35872489260866</v>
+        <v>13.11867210106643</v>
       </c>
       <c r="E124">
-        <v>13.59296377067391</v>
+        <v>13.3537373089984</v>
       </c>
       <c r="F124">
-        <v>13.53090542189923</v>
+        <v>13.38372458260189</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -2854,19 +2854,19 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>13.58790216816584</v>
+        <v>13.16458194812029</v>
       </c>
       <c r="C125">
-        <v>12.84998550085738</v>
+        <v>13.32446220220437</v>
       </c>
       <c r="D125">
-        <v>13.34501137053707</v>
+        <v>13.09732350474892</v>
       </c>
       <c r="E125">
-        <v>13.56090001424614</v>
+        <v>13.32089647686468</v>
       </c>
       <c r="F125">
-        <v>13.49968742607495</v>
+        <v>13.34889272260675</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -2874,19 +2874,19 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>13.55498633320421</v>
+        <v>13.133945477769</v>
       </c>
       <c r="C126">
-        <v>12.82586748378532</v>
+        <v>13.28975248808027</v>
       </c>
       <c r="D126">
-        <v>13.33002635353666</v>
+        <v>13.07475859263735</v>
       </c>
       <c r="E126">
-        <v>13.52760090718518</v>
+        <v>13.28686965098245</v>
       </c>
       <c r="F126">
-        <v>13.46722074183361</v>
+        <v>13.31295850430405</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -2894,19 +2894,19 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>13.52085523334735</v>
+        <v>13.10218156855383</v>
       </c>
       <c r="C127">
-        <v>12.80053359558054</v>
+        <v>13.25395019844314</v>
       </c>
       <c r="D127">
-        <v>13.31380747916169</v>
+        <v>13.05102041942535</v>
       </c>
       <c r="E127">
-        <v>13.49312806816322</v>
+        <v>13.25171602958594</v>
       </c>
       <c r="F127">
-        <v>13.43356659072547</v>
+        <v>13.27597836602413</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -2914,19 +2914,19 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>13.48556951223959</v>
+        <v>13.0693413855691</v>
       </c>
       <c r="C128">
-        <v>12.77403198568523</v>
+        <v>13.21711127529481</v>
       </c>
       <c r="D128">
-        <v>13.29639132747995</v>
+        <v>13.02615059916762</v>
       </c>
       <c r="E128">
-        <v>13.4575401697186</v>
+        <v>13.21549207213859</v>
       </c>
       <c r="F128">
-        <v>13.39878334784127</v>
+        <v>13.23800599698336</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -2934,19 +2934,19 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>13.44918696167572</v>
+        <v>13.0354739178417</v>
       </c>
       <c r="C129">
-        <v>12.74640919664247</v>
+        <v>13.1792889497493</v>
       </c>
       <c r="D129">
-        <v>13.2778134350914</v>
+        <v>13.00018933621705</v>
       </c>
       <c r="E129">
-        <v>13.42089320611019</v>
+        <v>13.17825161803355</v>
       </c>
       <c r="F129">
-        <v>13.36292669868296</v>
+        <v>13.19909250393113</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -2954,19 +2954,19 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>13.41176264316651</v>
+        <v>13.00062602161499</v>
       </c>
       <c r="C130">
-        <v>12.71771019606766</v>
+        <v>13.14053386961822</v>
       </c>
       <c r="D130">
-        <v>13.25810834318547</v>
+        <v>12.97317548732291</v>
       </c>
       <c r="E130">
-        <v>13.38324043300855</v>
+        <v>13.14004599601197</v>
       </c>
       <c r="F130">
-        <v>13.32604973416169</v>
+        <v>13.1592864875564</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -2974,19 +2974,19 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>13.37334900907564</v>
+        <v>12.96484256562292</v>
       </c>
       <c r="C131">
-        <v>12.68797840667156</v>
+        <v>13.10089422363254</v>
       </c>
       <c r="D131">
-        <v>13.23730961296675</v>
+        <v>12.94514658622024</v>
       </c>
       <c r="E131">
-        <v>13.34463269468963</v>
+        <v>13.10092413624751</v>
       </c>
       <c r="F131">
-        <v>13.28820307614328</v>
+        <v>13.11863420758368</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -2994,19 +2994,19 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>13.33399605264611</v>
+        <v>12.92816645759019</v>
       </c>
       <c r="C132">
-        <v>12.65725573904091</v>
+        <v>13.06041586348938</v>
       </c>
       <c r="D132">
-        <v>13.21544984827975</v>
+        <v>12.91613890771685</v>
       </c>
       <c r="E132">
-        <v>13.30511832546499</v>
+        <v>13.0609326714373</v>
       </c>
       <c r="F132">
-        <v>13.24943499377225</v>
+        <v>13.07717966147706</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3014,19 +3014,19 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>13.29375136212634</v>
+        <v>12.89063877810581</v>
       </c>
       <c r="C133">
-        <v>12.62558262904187</v>
+        <v>13.01914240725398</v>
       </c>
       <c r="D133">
-        <v>13.19256074456848</v>
+        <v>12.88618749799847</v>
       </c>
       <c r="E133">
-        <v>13.26474345551205</v>
+        <v>13.02011603875811</v>
       </c>
       <c r="F133">
-        <v>13.20979149463491</v>
+        <v>13.03496471361817</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3034,19 +3034,19 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>13.2526603350173</v>
+        <v>12.85229881245475</v>
       </c>
       <c r="C134">
-        <v>12.59299807457934</v>
+        <v>12.97711533898982</v>
       </c>
       <c r="D134">
-        <v>13.16867307899058</v>
+        <v>12.85532622059539</v>
       </c>
       <c r="E134">
-        <v>13.22355196244196</v>
+        <v>12.9785165714116</v>
       </c>
       <c r="F134">
-        <v>13.16931645361249</v>
+        <v>12.99202919289285</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3054,19 +3054,19 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>13.21076613481796</v>
+        <v>12.8131841665326</v>
       </c>
       <c r="C135">
-        <v>12.55953967304883</v>
+        <v>12.93437415394488</v>
       </c>
       <c r="D135">
-        <v>13.14381677615768</v>
+        <v>12.82358779157896</v>
       </c>
       <c r="E135">
-        <v>13.18158567370543</v>
+        <v>12.93617461181759</v>
       </c>
       <c r="F135">
-        <v>13.12805167694164</v>
+        <v>12.94841097660823</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3074,19 +3074,19 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>13.16810996528564</v>
+        <v>12.77333080826797</v>
       </c>
       <c r="C136">
-        <v>12.52524365935632</v>
+        <v>12.89095637450074</v>
       </c>
       <c r="D136">
-        <v>13.11802089439673</v>
+        <v>12.79100382188323</v>
       </c>
       <c r="E136">
-        <v>13.13888441597695</v>
+        <v>12.89312857477385</v>
       </c>
       <c r="F136">
-        <v>13.08603702832374</v>
+        <v>12.90414611596595</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3094,19 +3094,19 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>13.12473098033666</v>
+        <v>12.73277316161112</v>
       </c>
       <c r="C137">
-        <v>12.49014494608221</v>
+        <v>12.84689777429647</v>
       </c>
       <c r="D137">
-        <v>13.09131368033148</v>
+        <v>12.7576048517322</v>
       </c>
       <c r="E137">
-        <v>13.09548611580842</v>
+        <v>12.84941506489374</v>
       </c>
       <c r="F137">
-        <v>13.04331049423524</v>
+        <v>12.85926888600483</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3114,19 +3114,19 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>13.08066654809701</v>
+        <v>12.69154415305977</v>
       </c>
       <c r="C138">
-        <v>12.45427716219978</v>
+        <v>12.8022323069301</v>
       </c>
       <c r="D138">
-        <v>13.06372257374135</v>
+        <v>12.72342038629235</v>
       </c>
       <c r="E138">
-        <v>13.05142691626541</v>
+        <v>12.80506894716474</v>
       </c>
       <c r="F138">
-        <v>12.99990828162059</v>
+        <v>12.81381190639456</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3134,19 +3134,19 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>13.03595218830671</v>
+        <v>12.64967529264581</v>
       </c>
       <c r="C139">
-        <v>12.41767268975829</v>
+        <v>12.75699233214464</v>
       </c>
       <c r="D139">
-        <v>13.03527423529051</v>
+        <v>12.68847893399735</v>
       </c>
       <c r="E139">
-        <v>13.00674120291791</v>
+        <v>12.76012340792644</v>
       </c>
       <c r="F139">
-        <v>12.9558649029134</v>
+        <v>12.76780619658955</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3154,19 +3154,19 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>12.99062177843778</v>
+        <v>12.6071967188079</v>
       </c>
       <c r="C140">
-        <v>12.38036270103325</v>
+        <v>12.71120859946295</v>
       </c>
       <c r="D140">
-        <v>13.005994574865</v>
+        <v>12.65280803308701</v>
       </c>
       <c r="E140">
-        <v>12.96146177082858</v>
+        <v>12.71461008364839</v>
       </c>
       <c r="F140">
-        <v>12.91121323805594</v>
+        <v>12.72128126644042</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3174,19 +3174,19 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>12.94470753864898</v>
+        <v>12.56413727104199</v>
       </c>
       <c r="C141">
-        <v>12.34237719835625</v>
+        <v>12.66491035806341</v>
       </c>
       <c r="D141">
-        <v>12.97590875822901</v>
+        <v>12.61643429452253</v>
       </c>
       <c r="E141">
-        <v>12.9156197908052</v>
+        <v>12.66855905098996</v>
       </c>
       <c r="F141">
-        <v>12.86598463612439</v>
+        <v>12.67426519044096</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3194,19 +3194,19 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>12.8982401791331</v>
+        <v>12.52052453376156</v>
       </c>
       <c r="C142">
-        <v>12.30374505634767</v>
+        <v>12.61812544432187</v>
       </c>
       <c r="D142">
-        <v>12.94504124938477</v>
+        <v>12.57938341004639</v>
       </c>
       <c r="E142">
-        <v>12.86924500915903</v>
+        <v>12.62199899579007</v>
       </c>
       <c r="F142">
-        <v>12.82020895680587</v>
+        <v>12.62678466264451</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3214,19 +3214,19 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>12.85124892763997</v>
+        <v>12.47638489942391</v>
       </c>
       <c r="C143">
-        <v>12.26449405438396</v>
+        <v>12.57088030942121</v>
       </c>
       <c r="D143">
-        <v>12.91341580340053</v>
+        <v>12.54168022086911</v>
       </c>
       <c r="E143">
-        <v>12.8223656836403</v>
+        <v>12.57495717880966</v>
       </c>
       <c r="F143">
-        <v>12.77391466573196</v>
+        <v>12.57886508831388</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -3234,19 +3234,19 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>12.80376163335807</v>
+        <v>12.43174361402448</v>
       </c>
       <c r="C144">
-        <v>12.22465091224172</v>
+        <v>12.52320013914641</v>
       </c>
       <c r="D144">
-        <v>12.8810555148619</v>
+        <v>12.50334872871618</v>
       </c>
       <c r="E144">
-        <v>12.7750087819781</v>
+        <v>12.52745959643585</v>
       </c>
       <c r="F144">
-        <v>12.727128879899</v>
+        <v>12.53053061870135</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -3254,19 +3254,19 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>12.75580480235736</v>
+        <v>12.38662482924646</v>
       </c>
       <c r="C145">
-        <v>12.18424133235658</v>
+        <v>12.47510885990425</v>
       </c>
       <c r="D145">
-        <v>12.84798281378933</v>
+        <v>12.46441207949524</v>
       </c>
       <c r="E145">
-        <v>12.72719992764081</v>
+        <v>12.47953095271817</v>
       </c>
       <c r="F145">
-        <v>12.67987744031985</v>
+        <v>12.48180423590117</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -3274,19 +3274,19 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>12.7074036764396</v>
+        <v>12.34105165031027</v>
       </c>
       <c r="C146">
-        <v>12.14329002711627</v>
+        <v>12.42662926215067</v>
       </c>
       <c r="D146">
-        <v>12.81421949540773</v>
+        <v>12.42489269762619</v>
       </c>
       <c r="E146">
-        <v>12.67896355662988</v>
+        <v>12.43119480415715</v>
       </c>
       <c r="F146">
-        <v>12.63218497268264</v>
+        <v>12.43270779369977</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -3294,19 +3294,19 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>12.65858229440294</v>
+        <v>12.29504617753224</v>
       </c>
       <c r="C147">
-        <v>12.10182075776641</v>
+        <v>12.37778299570201</v>
       </c>
       <c r="D147">
-        <v>12.77978673897189</v>
+        <v>12.38481222996439</v>
       </c>
       <c r="E147">
-        <v>12.63032290960811</v>
+        <v>12.38247353918725</v>
       </c>
       <c r="F147">
-        <v>12.5840749324666</v>
+        <v>12.38326207840636</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -3314,19 +3314,19 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>12.60936353424388</v>
+        <v>12.24862955595306</v>
       </c>
       <c r="C148">
-        <v>12.05985636486336</v>
+        <v>12.32859069079922</v>
       </c>
       <c r="D148">
-        <v>12.74470511539514</v>
+        <v>12.34419152935205</v>
       </c>
       <c r="E148">
-        <v>12.58130011845802</v>
+        <v>12.33338850622041</v>
       </c>
       <c r="F148">
-        <v>12.53556967919996</v>
+        <v>12.33348686594088</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -3334,19 +3334,19 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>12.55976919051292</v>
+        <v>12.2018220077429</v>
       </c>
       <c r="C149">
-        <v>12.01741879476334</v>
+        <v>12.27907192235924</v>
       </c>
       <c r="D149">
-        <v>12.70899462033599</v>
+        <v>12.30305082880125</v>
       </c>
       <c r="E149">
-        <v>12.53191626377769</v>
+        <v>12.28395999058278</v>
       </c>
       <c r="F149">
-        <v>12.48669050546462</v>
+        <v>12.2834009570981</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -3354,19 +3354,19 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>12.50981999767121</v>
+        <v>12.15464288295045</v>
       </c>
       <c r="C150">
-        <v>11.97452914619611</v>
+        <v>12.22924535835414</v>
       </c>
       <c r="D150">
-        <v>12.67267467118008</v>
+        <v>12.261409636789</v>
       </c>
       <c r="E150">
-        <v>12.48219140239259</v>
+        <v>12.23420732296546</v>
       </c>
       <c r="F150">
-        <v>12.43745770677098</v>
+        <v>12.23302224366232</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -3374,19 +3374,19 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>12.45953571298034</v>
+        <v>12.10711068416329</v>
       </c>
       <c r="C151">
-        <v>11.93120768967178</v>
+        <v>12.17912870807658</v>
       </c>
       <c r="D151">
-        <v>12.63576414401572</v>
+        <v>12.21928676181739</v>
       </c>
       <c r="E151">
-        <v>12.43214465126052</v>
+        <v>12.18414889015922</v>
       </c>
       <c r="F151">
-        <v>12.38789061343434</v>
+        <v>12.18236773367344</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -3394,19 +3394,19 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>12.40893512917434</v>
+        <v>12.05924311795972</v>
       </c>
       <c r="C152">
-        <v>11.88747390585488</v>
+        <v>12.12873885434698</v>
       </c>
       <c r="D152">
-        <v>12.59828137050499</v>
+        <v>12.17670043711518</v>
       </c>
       <c r="E152">
-        <v>12.3817941742626</v>
+        <v>12.13380219045343</v>
       </c>
       <c r="F152">
-        <v>12.33800764369057</v>
+        <v>12.13145360966103</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -3414,19 +3414,19 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>12.35803615638067</v>
+        <v>12.01105711273458</v>
       </c>
       <c r="C153">
-        <v>11.84334650132034</v>
+        <v>12.07809182121924</v>
       </c>
       <c r="D153">
-        <v>12.56024416623288</v>
+        <v>12.13366824103833</v>
       </c>
       <c r="E153">
-        <v>12.33115730239377</v>
+        <v>12.08318388366133</v>
       </c>
       <c r="F153">
-        <v>12.28782634664255</v>
+        <v>12.08029525989784</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -3434,19 +3434,19 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>12.30685582568243</v>
+        <v>11.96256887072304</v>
       </c>
       <c r="C154">
-        <v>11.79884345692403</v>
+        <v>12.02720287083039</v>
       </c>
       <c r="D154">
-        <v>12.52166984017141</v>
+        <v>12.09020714368883</v>
       </c>
       <c r="E154">
-        <v>12.28025049578703</v>
+        <v>12.0323098099901</v>
       </c>
       <c r="F154">
-        <v>12.23736343491157</v>
+        <v>12.02890731792138</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -3454,19 +3454,19 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>12.255410372679</v>
+        <v>11.91379387936296</v>
       </c>
       <c r="C155">
-        <v>11.75398203118488</v>
+        <v>11.97608650521548</v>
       </c>
       <c r="D155">
-        <v>12.48257520572153</v>
+        <v>12.0463335722948</v>
       </c>
       <c r="E155">
-        <v>12.22908945978947</v>
+        <v>11.98119506006059</v>
       </c>
       <c r="F155">
-        <v>12.18663483823123</v>
+        <v>11.97730370683368</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -3474,19 +3474,19 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>12.20371523101273</v>
+        <v>11.8647469640252</v>
       </c>
       <c r="C156">
-        <v>11.70877881248181</v>
+        <v>11.92475652230942</v>
       </c>
       <c r="D156">
-        <v>12.44297660502964</v>
+        <v>12.00206336856007</v>
       </c>
       <c r="E156">
-        <v>12.17768910816593</v>
+        <v>11.9298539747135</v>
       </c>
       <c r="F156">
-        <v>12.13565572371786</v>
+        <v>11.92549766110089</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -3494,19 +3494,19 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>12.15178511662679</v>
+        <v>11.81544229325072</v>
       </c>
       <c r="C157">
-        <v>11.66324971768421</v>
+        <v>11.87322604525597</v>
       </c>
       <c r="D157">
-        <v>12.40288990740364</v>
+        <v>11.95741184066764</v>
       </c>
       <c r="E157">
-        <v>12.12606366875878</v>
+        <v>11.87830022146446</v>
       </c>
       <c r="F157">
-        <v>12.0844405466061</v>
+        <v>11.8735017742491</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -3514,19 +3514,19 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>12.0996340151133</v>
+        <v>11.7658934317653</v>
       </c>
       <c r="C158">
-        <v>11.61741004381967</v>
+        <v>11.82150754930463</v>
       </c>
       <c r="D158">
-        <v>12.36233054003294</v>
+        <v>11.91239379687191</v>
       </c>
       <c r="E158">
-        <v>12.07422666272934</v>
+        <v>11.8265467822457</v>
       </c>
       <c r="F158">
-        <v>12.03300307262836</v>
+        <v>11.82132801744329</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -3534,19 +3534,19 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>12.04727526295158</v>
+        <v>11.71611334177489</v>
       </c>
       <c r="C159">
-        <v>11.57127446718812</v>
+        <v>11.76961290936833</v>
       </c>
       <c r="D159">
-        <v>12.32131348314334</v>
+        <v>11.86702351154965</v>
       </c>
       <c r="E159">
-        <v>12.02219097168145</v>
+        <v>11.77460603446679</v>
       </c>
       <c r="F159">
-        <v>11.98135641663444</v>
+        <v>11.76898777224012</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -3554,19 +3554,19 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>11.99472153338287</v>
+        <v>11.66611443313041</v>
       </c>
       <c r="C160">
-        <v>11.52485708813574</v>
+        <v>11.71755340472173</v>
       </c>
       <c r="D160">
-        <v>12.27985329758767</v>
+        <v>11.8213147931086</v>
       </c>
       <c r="E160">
-        <v>11.9699688546748</v>
+        <v>11.72248972945579</v>
       </c>
       <c r="F160">
-        <v>11.92951307242527</v>
+        <v>11.71649186406393</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -3574,19 +3574,19 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>11.94198491152262</v>
+        <v>11.61590856421431</v>
       </c>
       <c r="C161">
-        <v>11.47817143649016</v>
+        <v>11.66533977912244</v>
       </c>
       <c r="D161">
-        <v>12.23796412738501</v>
+        <v>11.77528099365201</v>
       </c>
       <c r="E161">
-        <v>11.91757197486385</v>
+        <v>11.67020907380035</v>
       </c>
       <c r="F161">
-        <v>11.87748492724494</v>
+        <v>11.66385060435214</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -3594,19 +3594,19 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>11.88907688087439</v>
+        <v>11.56550708773124</v>
       </c>
       <c r="C162">
-        <v>11.4312305043346</v>
+        <v>11.61298223080132</v>
       </c>
       <c r="D162">
-        <v>12.19565971340734</v>
+        <v>11.72893497108112</v>
       </c>
       <c r="E162">
-        <v>11.8650114448844</v>
+        <v>11.61777470484808</v>
       </c>
       <c r="F162">
-        <v>11.82528332353934</v>
+        <v>11.61107375748371</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -3614,19 +3614,19 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>11.8360083921374</v>
+        <v>11.51492085180041</v>
       </c>
       <c r="C163">
-        <v>11.38404676147283</v>
+        <v>11.56049047773051</v>
       </c>
       <c r="D163">
-        <v>12.15295340964412</v>
+        <v>11.6822891828259</v>
       </c>
       <c r="E163">
-        <v>11.81229782607847</v>
+        <v>11.565196765038</v>
       </c>
       <c r="F163">
-        <v>11.77291906063051</v>
+        <v>11.55817066852472</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -3634,19 +3634,19 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>11.78278985015436</v>
+        <v>11.46416024158557</v>
       </c>
       <c r="C164">
-        <v>11.33663217579295</v>
+        <v>11.50787374142199</v>
       </c>
       <c r="D164">
-        <v>12.10985818462303</v>
+        <v>11.63535566177191</v>
       </c>
       <c r="E164">
-        <v>11.75944118920136</v>
+        <v>11.51248488801018</v>
       </c>
       <c r="F164">
-        <v>11.72040240470189</v>
+        <v>11.50515019950184</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -3654,19 +3654,19 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>11.72943117687858</v>
+        <v>11.41323518056911</v>
       </c>
       <c r="C165">
-        <v>11.28899823688388</v>
+        <v>11.45514081034012</v>
       </c>
       <c r="D165">
-        <v>12.06638664500946</v>
+        <v>11.58814599576565</v>
       </c>
       <c r="E165">
-        <v>11.7064510988208</v>
+        <v>11.45964824735204</v>
       </c>
       <c r="F165">
-        <v>11.66774318820237</v>
+        <v>11.45202074361901</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -3674,19 +3674,19 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>11.67594180044954</v>
+        <v>11.36215516842918</v>
       </c>
       <c r="C166">
-        <v>11.24115596686232</v>
+        <v>11.40230002290432</v>
       </c>
       <c r="D166">
-        <v>12.02255103139421</v>
+        <v>11.54067141690579</v>
       </c>
       <c r="E166">
-        <v>11.65333667919984</v>
+        <v>11.40669556730453</v>
       </c>
       <c r="F166">
-        <v>11.61495071922792</v>
+        <v>11.39879035266885</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -3694,19 +3694,19 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>11.62233070859074</v>
+        <v>11.31092928239218</v>
       </c>
       <c r="C167">
-        <v>11.19311594930873</v>
+        <v>11.34935932596805</v>
       </c>
       <c r="D167">
-        <v>11.97836324304094</v>
+        <v>11.49294276615377</v>
       </c>
       <c r="E167">
-        <v>11.60010659293084</v>
+        <v>11.35363514600253</v>
       </c>
       <c r="F167">
-        <v>11.56203388683798</v>
+        <v>11.34546661443989</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -3714,19 +3714,19 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>11.56860644536544</v>
+        <v>11.25956621170673</v>
       </c>
       <c r="C168">
-        <v>11.14488833355178</v>
+        <v>11.29632626018496</v>
       </c>
       <c r="D168">
-        <v>11.9338348320838</v>
+        <v>11.44497049006329</v>
       </c>
       <c r="E168">
-        <v>11.54676910412017</v>
+        <v>11.30047488226555</v>
       </c>
       <c r="F168">
-        <v>11.50900118889321</v>
+        <v>11.29205677751228</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -3734,19 +3734,19 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>11.51477715065459</v>
+        <v>11.20807425910246</v>
       </c>
       <c r="C169">
-        <v>11.09648286628715</v>
+        <v>11.24320800918237</v>
       </c>
       <c r="D169">
-        <v>11.88897702513344</v>
+        <v>11.39676471025633</v>
       </c>
       <c r="E169">
-        <v>11.49333206128831</v>
+        <v>11.24722228252923</v>
       </c>
       <c r="F169">
-        <v>11.45586064475668</v>
+        <v>11.23856774169019</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -3754,19 +3754,19 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>11.46085056696156</v>
+        <v>11.15646137056746</v>
       </c>
       <c r="C170">
-        <v>11.04790889155024</v>
+        <v>11.19001139444346</v>
       </c>
       <c r="D170">
-        <v>11.84380073756418</v>
+        <v>11.34833519476092</v>
       </c>
       <c r="E170">
-        <v>11.43980294507654</v>
+        <v>11.19388449686525</v>
       </c>
       <c r="F170">
-        <v>11.40261995959511</v>
+        <v>11.18500602920787</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -3774,19 +3774,19 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>11.40683406610323</v>
+        <v>11.10473513259486</v>
       </c>
       <c r="C171">
-        <v>10.99917538340519</v>
+        <v>11.13674290699589</v>
       </c>
       <c r="D171">
-        <v>11.79831657111104</v>
+        <v>11.29969136643889</v>
       </c>
       <c r="E171">
-        <v>11.38618886875348</v>
+        <v>11.14046831549769</v>
       </c>
       <c r="F171">
-        <v>11.34928644671026</v>
+        <v>11.13137787924116</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -3794,19 +3794,19 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>11.35273466344512</v>
+        <v>11.05290281756555</v>
       </c>
       <c r="C172">
-        <v>10.95029094306041</v>
+        <v>11.08340871753676</v>
       </c>
       <c r="D172">
-        <v>11.75253480255991</v>
+        <v>11.25084234885201</v>
       </c>
       <c r="E172">
-        <v>11.33249660184819</v>
+        <v>11.08698020934237</v>
       </c>
       <c r="F172">
-        <v>11.29586705171952</v>
+        <v>11.07768920509194</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -3814,19 +3814,19 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>11.29855903506087</v>
+        <v>11.00097137706802</v>
       </c>
       <c r="C173">
-        <v>10.9012638314285</v>
+        <v>11.03001469138452</v>
       </c>
       <c r="D173">
-        <v>11.70646545536917</v>
+        <v>11.20179694437049</v>
       </c>
       <c r="E173">
-        <v>11.27873259021699</v>
+        <v>11.03342632073202</v>
       </c>
       <c r="F173">
-        <v>11.24236842145271</v>
+        <v>11.02394562433555</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -3834,19 +3834,19 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>11.24431353680046</v>
+        <v>10.94894743567031</v>
       </c>
       <c r="C174">
-        <v>10.8521019647828</v>
+        <v>10.97656640929518</v>
       </c>
       <c r="D174">
-        <v>11.66011826514456</v>
+        <v>11.15256364331773</v>
       </c>
       <c r="E174">
-        <v>11.22490296080007</v>
+        <v>10.97981250465225</v>
       </c>
       <c r="F174">
-        <v>11.18879685872321</v>
+        <v>10.97015249899641</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -3854,19 +3854,19 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>11.19000421445164</v>
+        <v>10.89683737283401</v>
       </c>
       <c r="C175">
-        <v>10.80281294557705</v>
+        <v>10.92306917133629</v>
       </c>
       <c r="D175">
-        <v>11.61350264732418</v>
+        <v>11.10315067007943</v>
       </c>
       <c r="E175">
-        <v>11.1710135529876</v>
+        <v>10.92614431726062</v>
       </c>
       <c r="F175">
-        <v>11.13515837749027</v>
+        <v>10.91631490143878</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -3874,19 +3874,19 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>11.13563682577347</v>
+        <v>10.84464727175862</v>
       </c>
       <c r="C176">
-        <v>10.7534040598889</v>
+        <v>10.86952802355828</v>
       </c>
       <c r="D176">
-        <v>11.56662778177471</v>
+        <v>11.05356595448203</v>
       </c>
       <c r="E176">
-        <v>11.11706991268642</v>
+        <v>10.87242705502045</v>
       </c>
       <c r="F176">
-        <v>11.08145871389608</v>
+        <v>10.86243767982065</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -3894,19 +3894,19 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>11.0812168455253</v>
+        <v>10.79238291105598</v>
       </c>
       <c r="C177">
-        <v>10.70388230167944</v>
+        <v>10.81594775531036</v>
       </c>
       <c r="D177">
-        <v>11.51950259998476</v>
+        <v>11.00381715196854</v>
       </c>
       <c r="E177">
-        <v>11.06307732851501</v>
+        <v>10.81866574418904</v>
       </c>
       <c r="F177">
-        <v>11.02770330823971</v>
+        <v>10.80852543873472</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -3914,19 +3914,19 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>11.02674948911116</v>
+        <v>10.74004987913448</v>
       </c>
       <c r="C178">
-        <v>10.65425437668278</v>
+        <v>10.76233292822984</v>
       </c>
       <c r="D178">
-        <v>11.47213576452023</v>
+        <v>10.95391167290878</v>
       </c>
       <c r="E178">
-        <v>11.00904082073864</v>
+        <v>10.76486517403206</v>
       </c>
       <c r="F178">
-        <v>10.97389736974564</v>
+        <v>10.75458253201402</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -3934,19 +3934,19 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>10.9722397139449</v>
+        <v>10.68765349172128</v>
       </c>
       <c r="C179">
-        <v>10.60452671797141</v>
+        <v>10.70868787005048</v>
       </c>
       <c r="D179">
-        <v>11.42453566043175</v>
+        <v>10.90385665987185</v>
       </c>
       <c r="E179">
-        <v>10.95496517792887</v>
+        <v>10.7110298929407</v>
       </c>
       <c r="F179">
-        <v>10.92004584573071</v>
+        <v>10.70061313150574</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -3954,19 +3954,19 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>10.91769224363707</v>
+        <v>10.63519880410863</v>
       </c>
       <c r="C180">
-        <v>10.55470549613217</v>
+        <v>10.65501670373609</v>
       </c>
       <c r="D180">
-        <v>11.37671048122428</v>
+        <v>10.85365901441969</v>
       </c>
       <c r="E180">
-        <v>10.90085494483847</v>
+        <v>10.65716422936285</v>
       </c>
       <c r="F180">
-        <v>10.8661534337921</v>
+        <v>10.64662118235286</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -3974,19 +3974,19 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>10.86311156689301</v>
+        <v>10.5826906950542</v>
       </c>
       <c r="C181">
-        <v>10.50479662782183</v>
+        <v>10.60132333967676</v>
       </c>
       <c r="D181">
-        <v>11.32866817537588</v>
+        <v>10.80332541277405</v>
       </c>
       <c r="E181">
-        <v>10.84671445527357</v>
+        <v>10.60327229885029</v>
       </c>
       <c r="F181">
-        <v>10.8122246353192</v>
+        <v>10.59261043687803</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -3994,19 +3994,19 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>10.80850196141592</v>
+        <v>10.53013380735349</v>
       </c>
       <c r="C182">
-        <v>10.45480578737612</v>
+        <v>10.54761150363943</v>
       </c>
       <c r="D182">
-        <v>11.28041643860002</v>
+        <v>10.75286228800823</v>
       </c>
       <c r="E182">
-        <v>10.79254782603542</v>
+        <v>10.54935801340056</v>
       </c>
       <c r="F182">
-        <v>10.75826371005039</v>
+        <v>10.5385844742139</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4014,19 +4014,19 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>10.75386749125694</v>
+        <v>10.47753256772859</v>
       </c>
       <c r="C183">
-        <v>10.40473841155911</v>
+        <v>10.49388472864819</v>
       </c>
       <c r="D183">
-        <v>11.23196276991224</v>
+        <v>10.70227586241017</v>
       </c>
       <c r="E183">
-        <v>10.73835897638157</v>
+        <v>10.49542509585272</v>
       </c>
       <c r="F183">
-        <v>10.70427472728745</v>
+        <v>10.48454667301468</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4034,19 +4034,19 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>10.69921202986116</v>
+        <v>10.4248912330617</v>
       </c>
       <c r="C184">
-        <v>10.35459972658798</v>
+        <v>10.44014638031894</v>
       </c>
       <c r="D184">
-        <v>11.18331445654999</v>
+        <v>10.65157215077936</v>
       </c>
       <c r="E184">
-        <v>10.68415163521087</v>
+        <v>10.44147708175606</v>
       </c>
       <c r="F184">
-        <v>10.65026156529387</v>
+        <v>10.43050026512783</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4054,19 +4054,19 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>10.6445392565284</v>
+        <v>10.37221385872798</v>
       </c>
       <c r="C185">
-        <v>10.30439474086073</v>
+        <v>10.38639965199114</v>
       </c>
       <c r="D185">
-        <v>11.13447857065535</v>
+        <v>10.60075694580951</v>
       </c>
       <c r="E185">
-        <v>10.6299293473791</v>
+        <v>10.38751733775475</v>
       </c>
       <c r="F185">
-        <v>10.5962278964482</v>
+        <v>10.37644831484349</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4074,19 +4074,19 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>10.58985267748399</v>
+        <v>10.31950431655593</v>
       </c>
       <c r="C186">
-        <v>10.25412823632062</v>
+        <v>10.33264758184981</v>
       </c>
       <c r="D186">
-        <v>11.08546197184923</v>
+        <v>10.54983585762495</v>
       </c>
       <c r="E186">
-        <v>10.57569548923054</v>
+        <v>10.33354905902975</v>
       </c>
       <c r="F186">
-        <v>10.54217723767722</v>
+        <v>10.32239372748346</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4094,19 +4094,19 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>10.53515561679153</v>
+        <v>10.26676632553328</v>
       </c>
       <c r="C187">
-        <v>10.20380483583092</v>
+        <v>10.27889305596766</v>
       </c>
       <c r="D187">
-        <v>11.03627134517521</v>
+        <v>10.49881430387891</v>
       </c>
       <c r="E187">
-        <v>10.52145326723642</v>
+        <v>10.2795752892689</v>
       </c>
       <c r="F187">
-        <v>10.48811292780851</v>
+        <v>10.26833927761926</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4114,19 +4114,19 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>10.48045125081985</v>
+        <v>10.21400342969751</v>
       </c>
       <c r="C188">
-        <v>10.1534289690804</v>
+        <v>10.22513881686386</v>
       </c>
       <c r="D188">
-        <v>10.98691318174517</v>
+        <v>10.44769750234366</v>
       </c>
       <c r="E188">
-        <v>10.46720573753831</v>
+        <v>10.22559891582084</v>
       </c>
       <c r="F188">
-        <v>10.43403814107961</v>
+        <v>10.21428758894764</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4134,19 +4134,19 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>10.42574260593314</v>
+        <v>10.16121901650482</v>
       </c>
       <c r="C189">
-        <v>10.10300482842045</v>
+        <v>10.17138746894585</v>
       </c>
       <c r="D189">
-        <v>10.93739376907935</v>
+        <v>10.3964905087936</v>
       </c>
       <c r="E189">
-        <v>10.41295580059871</v>
+        <v>10.17162268931027</v>
       </c>
       <c r="F189">
-        <v>10.37995591181795</v>
+        <v>10.16024116145961</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4154,19 +4154,19 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>10.37103252862483</v>
+        <v>10.10841633969081</v>
       </c>
       <c r="C190">
-        <v>10.05253649936207</v>
+        <v>10.11764148394104</v>
       </c>
       <c r="D190">
-        <v>10.88771923618334</v>
+        <v>10.34519820239803</v>
       </c>
       <c r="E190">
-        <v>10.35870622188737</v>
+        <v>10.1176492122267</v>
       </c>
       <c r="F190">
-        <v>10.32586911324155</v>
+        <v>10.10620237461936</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4174,19 +4174,19 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>10.31632376879526</v>
+        <v>10.0555984927199</v>
       </c>
       <c r="C191">
-        <v>10.00202788782144</v>
+        <v>10.06390322095781</v>
       </c>
       <c r="D191">
-        <v>10.83789553734969</v>
+        <v>10.29382528407599</v>
       </c>
       <c r="E191">
-        <v>10.3044596250177</v>
+        <v>10.06368097110154</v>
       </c>
       <c r="F191">
-        <v>10.27178049114726</v>
+        <v>10.05217347597153</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4194,19 +4194,19 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>10.26161894252757</v>
+        <v>10.00276843312954</v>
       </c>
       <c r="C192">
-        <v>9.951482697735166</v>
+        <v>10.01017491756148</v>
       </c>
       <c r="D192">
-        <v>10.78792844925602</v>
+        <v>10.24237630811627</v>
       </c>
       <c r="E192">
-        <v>10.2502185113426</v>
+        <v>10.00972033259074</v>
       </c>
       <c r="F192">
-        <v>10.21769266017131</v>
+        <v>9.998156615919852</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -4214,19 +4214,19 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>10.20692049313637</v>
+        <v>9.949929004031373</v>
       </c>
       <c r="C193">
-        <v>9.900904514700478</v>
+        <v>9.956458682630331</v>
       </c>
       <c r="D193">
-        <v>10.73782357463703</v>
+        <v>10.190855668175</v>
       </c>
       <c r="E193">
-        <v>10.1959852497147</v>
+        <v>9.955769524024873</v>
       </c>
       <c r="F193">
-        <v>10.16360809646652</v>
+        <v>9.944153830247753</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -4234,19 +4234,19 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>10.15223078112509</v>
+        <v>9.897082906567807</v>
       </c>
       <c r="C194">
-        <v>9.850296778248577</v>
+        <v>9.902756552627297</v>
       </c>
       <c r="D194">
-        <v>10.68758637859693</v>
+        <v>10.13926759950576</v>
       </c>
       <c r="E194">
-        <v>10.14176210014585</v>
+        <v>9.901830683335962</v>
       </c>
       <c r="F194">
-        <v>10.10952917208111</v>
+        <v>9.890167049498874</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -4254,19 +4254,19 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>10.09755206211365</v>
+        <v>9.844232725779321</v>
       </c>
       <c r="C195">
-        <v>9.799662767435999</v>
+        <v>9.849070459721771</v>
       </c>
       <c r="D195">
-        <v>10.63722216655351</v>
+        <v>10.08761620387755</v>
       </c>
       <c r="E195">
-        <v>10.08755121713842</v>
+        <v>9.847905852820722</v>
       </c>
       <c r="F195">
-        <v>10.05545813659882</v>
+        <v>9.836198117454455</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -4274,19 +4274,19 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>10.04288645090398</v>
+        <v>9.79138094205365</v>
       </c>
       <c r="C196">
-        <v>9.749005628188726</v>
+        <v>9.795402186769223</v>
       </c>
       <c r="D196">
-        <v>10.58673606466126</v>
+        <v>10.03590543704553</v>
       </c>
       <c r="E196">
-        <v>10.0333546389501</v>
+        <v>9.793996948360203</v>
       </c>
       <c r="F196">
-        <v>10.00139712816078</v>
+        <v>9.782248773370602</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -4294,19 +4294,19 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>9.988235963696351</v>
+        <v>9.738529912030753</v>
       </c>
       <c r="C197">
-        <v>9.698328389867937</v>
+        <v>9.741753489010966</v>
       </c>
       <c r="D197">
-        <v>10.53613308309851</v>
+        <v>9.984139114483787</v>
       </c>
       <c r="E197">
-        <v>9.97917430112507</v>
+        <v>9.740105785491748</v>
       </c>
       <c r="F197">
-        <v>9.947348191346116</v>
+        <v>9.728320677835281</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -4314,19 +4314,19 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>9.933602538763591</v>
+        <v>9.68568189297863</v>
       </c>
       <c r="C198">
-        <v>9.64763394639491</v>
+        <v>9.688126022070534</v>
       </c>
       <c r="D198">
-        <v>10.48541808214669</v>
+        <v>9.932320929886046</v>
       </c>
       <c r="E198">
-        <v>9.925012068184751</v>
+        <v>9.686234123545109</v>
       </c>
       <c r="F198">
-        <v>9.893313259208666</v>
+        <v>9.674415406890065</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -4334,19 +4334,19 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>9.878988003160073</v>
+        <v>9.632839047997866</v>
       </c>
       <c r="C199">
-        <v>9.596925064126845</v>
+        <v>9.634521324489565</v>
       </c>
       <c r="D199">
-        <v>10.43459577738411</v>
+        <v>9.880454444098973</v>
       </c>
       <c r="E199">
-        <v>9.870869704813222</v>
+        <v>9.632383616661953</v>
       </c>
       <c r="F199">
-        <v>9.839294180266929</v>
+        <v>9.620534450395608</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -4354,19 +4354,19 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>9.824394087212754</v>
+        <v>9.580003433177408</v>
       </c>
       <c r="C200">
-        <v>9.546204411661286</v>
+        <v>9.580940881811944</v>
       </c>
       <c r="D200">
-        <v>10.38367074595537</v>
+        <v>9.828543094162722</v>
       </c>
       <c r="E200">
-        <v>9.816748848558175</v>
+        <v>9.578555809546339</v>
       </c>
       <c r="F200">
-        <v>9.785292712393291</v>
+        <v>9.566679231733048</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -4374,19 +4374,19 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>9.769822454117978</v>
+        <v>9.527177019500574</v>
       </c>
       <c r="C201">
-        <v>9.495474541969601</v>
+        <v>9.527386109788695</v>
       </c>
       <c r="D201">
-        <v>10.3326474461156</v>
+        <v>9.776590205832793</v>
       </c>
       <c r="E201">
-        <v>9.762651111139881</v>
+        <v>9.524752207762873</v>
       </c>
       <c r="F201">
-        <v>9.731310520668005</v>
+        <v>9.512851096836489</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -4394,19 +4394,19 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>9.715274677345326</v>
+        <v>9.474361694029154</v>
       </c>
       <c r="C202">
-        <v>9.444737890075345</v>
+        <v>9.47385833767571</v>
       </c>
       <c r="D202">
-        <v>10.281530206269</v>
+        <v>9.72459898376438</v>
       </c>
       <c r="E202">
-        <v>9.70857801421276</v>
+        <v>9.470974230620154</v>
       </c>
       <c r="F202">
-        <v>9.677349198455603</v>
+        <v>9.459051323608119</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -4414,19 +4414,19 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>9.66075224332352</v>
+        <v>9.421559248620092</v>
       </c>
       <c r="C203">
-        <v>9.393996809132229</v>
+        <v>9.42035882402903</v>
       </c>
       <c r="D203">
-        <v>10.23032322056996</v>
+        <v>9.672572523898337</v>
       </c>
       <c r="E203">
-        <v>9.654530964549942</v>
+        <v>9.417223202032698</v>
       </c>
       <c r="F203">
-        <v>9.623410256188613</v>
+        <v>9.405281129769538</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -4434,19 +4434,19 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>9.606256581597483</v>
+        <v>9.368771403831069</v>
       </c>
       <c r="C204">
-        <v>9.343253553068505</v>
+        <v>9.36688877740462</v>
       </c>
       <c r="D204">
-        <v>10.17903057761275</v>
+        <v>9.620513820140399</v>
       </c>
       <c r="E204">
-        <v>9.600511336462828</v>
+        <v>9.363500405170591</v>
       </c>
       <c r="F204">
-        <v>9.569495129852969</v>
+        <v>9.351541663052808</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -4454,19 +4454,19 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>9.551789047691535</v>
+        <v>9.315999805712227</v>
       </c>
       <c r="C205">
-        <v>9.292510258212921</v>
+        <v>9.313449339483643</v>
       </c>
       <c r="D205">
-        <v>10.12765624766035</v>
+        <v>9.568425755859327</v>
       </c>
       <c r="E205">
-        <v>9.546520431926679</v>
+        <v>9.309807052255021</v>
       </c>
       <c r="F205">
-        <v>9.51560519097163</v>
+        <v>9.297834020260165</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -4474,19 +4474,19 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>9.497350919394876</v>
+        <v>9.263246015100625</v>
       </c>
       <c r="C206">
-        <v>9.241768999832182</v>
+        <v>9.260041590277742</v>
       </c>
       <c r="D206">
-        <v>10.07620408033957</v>
+        <v>9.516311119575843</v>
       </c>
       <c r="E206">
-        <v>9.492559475085445</v>
+        <v>9.256144288694262</v>
       </c>
       <c r="F206">
-        <v>9.461741735381395</v>
+        <v>9.244159239722883</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -4494,19 +4494,19 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>9.442943428471787</v>
+        <v>9.210511533484041</v>
       </c>
       <c r="C207">
-        <v>9.191031762212017</v>
+        <v>9.206666564092426</v>
       </c>
       <c r="D207">
-        <v>10.02467781409447</v>
+        <v>9.464172605815616</v>
       </c>
       <c r="E207">
-        <v>9.438629627531288</v>
+        <v>9.202513208769769</v>
       </c>
       <c r="F207">
-        <v>9.407906002839338</v>
+        <v>9.190518303174658</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -4514,19 +4514,19 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>9.388567744973551</v>
+        <v>9.157797795581693</v>
       </c>
       <c r="C208">
-        <v>9.140300428001671</v>
+        <v>9.153325242470938</v>
       </c>
       <c r="D208">
-        <v>9.97308109220611</v>
+        <v>9.412012808183091</v>
       </c>
       <c r="E208">
-        <v>9.3847320055502</v>
+        <v>9.148914854876738</v>
       </c>
       <c r="F208">
-        <v>9.354099170683332</v>
+        <v>9.136912147786388</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -4534,19 +4534,19 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>9.334224958089543</v>
+        <v>9.105106160101988</v>
       </c>
       <c r="C209">
-        <v>9.089576813502346</v>
+        <v>9.100018535503906</v>
       </c>
       <c r="D209">
-        <v>9.921417450837618</v>
+        <v>9.35983423810123</v>
       </c>
       <c r="E209">
-        <v>9.330867664846201</v>
+        <v>9.095350206410428</v>
       </c>
       <c r="F209">
-        <v>9.300322353667928</v>
+        <v>9.083341657628621</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -4554,19 +4554,19 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>9.279916128864743</v>
+        <v>9.052437936357016</v>
       </c>
       <c r="C210">
-        <v>9.038862662428576</v>
+        <v>9.046747331615153</v>
       </c>
       <c r="D210">
-        <v>9.869690310753848</v>
+        <v>9.307639319553855</v>
       </c>
       <c r="E210">
-        <v>9.277037604359004</v>
+        <v>9.041820191665552</v>
       </c>
       <c r="F210">
-        <v>9.246576618246145</v>
+        <v>9.029807672950874</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -4574,19 +4574,19 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>9.225642261003296</v>
+        <v>8.999794373121901</v>
       </c>
       <c r="C211">
-        <v>8.988159640825797</v>
+        <v>8.993512468953107</v>
       </c>
       <c r="D211">
-        <v>9.817903012906312</v>
+        <v>9.255430386250222</v>
       </c>
       <c r="E211">
-        <v>9.223242782380956</v>
+        <v>8.988325705152274</v>
       </c>
       <c r="F211">
-        <v>9.192862974066475</v>
+        <v>8.976310992341311</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -4594,19 +4594,19 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>9.171404296119691</v>
+        <v>8.947176653751221</v>
       </c>
       <c r="C212">
-        <v>8.937469345658549</v>
+        <v>8.940314725033883</v>
       </c>
       <c r="D212">
-        <v>9.766058799043087</v>
+        <v>9.203209698415314</v>
       </c>
       <c r="E212">
-        <v>9.169484110473897</v>
+        <v>8.934867587374958</v>
       </c>
       <c r="F212">
-        <v>9.139182380858188</v>
+        <v>8.922852368069449</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -4614,19 +4614,19 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>9.117203139638471</v>
+        <v>8.894585917912266</v>
       </c>
       <c r="C213">
-        <v>8.886793312095776</v>
+        <v>8.88715484891595</v>
       </c>
       <c r="D213">
-        <v>9.714160811819278</v>
+        <v>9.150979436319618</v>
       </c>
       <c r="E213">
-        <v>9.115762432405489</v>
+        <v>8.881446622300336</v>
       </c>
       <c r="F213">
-        <v>9.085535754413041</v>
+        <v>8.869432518162322</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -4634,19 +4634,19 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>9.063039653378842</v>
+        <v>8.842023251863708</v>
       </c>
       <c r="C214">
-        <v>8.836133006921067</v>
+        <v>8.834033552361779</v>
       </c>
       <c r="D214">
-        <v>9.662212105040117</v>
+        <v>9.098741699817202</v>
       </c>
       <c r="E214">
-        <v>9.062078573619139</v>
+        <v>8.828063571652473</v>
       </c>
       <c r="F214">
-        <v>9.031923959029172</v>
+        <v>8.816052120930705</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -4654,19 +4654,19 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>9.008914648033045</v>
+        <v>8.789489685509944</v>
       </c>
       <c r="C215">
-        <v>8.785489827546524</v>
+        <v>8.780951506582273</v>
       </c>
       <c r="D215">
-        <v>9.610215652162719</v>
+        <v>9.046498522183304</v>
       </c>
       <c r="E215">
-        <v>9.00843331409073</v>
+        <v>8.774719152364733</v>
       </c>
       <c r="F215">
-        <v>8.978347821402259</v>
+        <v>8.762711817738781</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -4674,19 +4674,19 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>8.954828896229433</v>
+        <v>8.736986209943758</v>
       </c>
       <c r="C216">
-        <v>8.734865126319189</v>
+        <v>8.727909348021988</v>
       </c>
       <c r="D216">
-        <v>9.558174339193906</v>
+        <v>8.994251864025262</v>
       </c>
       <c r="E216">
-        <v>8.954827382886286</v>
+        <v>8.721414040603426</v>
       </c>
       <c r="F216">
-        <v>8.924808125440039</v>
+        <v>8.709412219500516</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -4694,19 +4694,19 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>8.900783136895267</v>
+        <v>8.684513769422058</v>
       </c>
       <c r="C217">
-        <v>8.684260195024507</v>
+        <v>8.674907683500187</v>
       </c>
       <c r="D217">
-        <v>9.50609096096359</v>
+        <v>8.942003614409581</v>
       </c>
       <c r="E217">
-        <v>8.901261473153594</v>
+        <v>8.668148883201665</v>
       </c>
       <c r="F217">
-        <v>8.871305613111804</v>
+        <v>8.656153897351444</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -4714,19 +4714,19 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>8.84677806748406</v>
+        <v>8.632073259349868</v>
       </c>
       <c r="C218">
-        <v>8.633676262988804</v>
+        <v>8.621947084842919</v>
       </c>
       <c r="D218">
-        <v>9.453968244010966</v>
+        <v>8.88975560193747</v>
       </c>
       <c r="E218">
-        <v>8.84773625170337</v>
+        <v>8.614924293820858</v>
       </c>
       <c r="F218">
-        <v>8.817840993377912</v>
+        <v>8.602937398155209</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -4734,19 +4734,19 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>8.792814349239869</v>
+        <v>8.579665541026545</v>
       </c>
       <c r="C219">
-        <v>8.583114519088012</v>
+        <v>8.569028084550343</v>
       </c>
       <c r="D219">
-        <v>9.401808834771206</v>
+        <v>8.837509589096038</v>
       </c>
       <c r="E219">
-        <v>8.794252347357519</v>
+        <v>8.561740841779704</v>
       </c>
       <c r="F219">
-        <v>8.764414936606929</v>
+        <v>8.549763241009279</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -4754,19 +4754,19 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>8.738892615875745</v>
+        <v>8.527291434573149</v>
       </c>
       <c r="C220">
-        <v>8.532576100950511</v>
+        <v>8.516151199614745</v>
       </c>
       <c r="D220">
-        <v>9.349615298637911</v>
+        <v>8.785267274974034</v>
       </c>
       <c r="E220">
-        <v>8.740810355081228</v>
+        <v>8.508599075878108</v>
       </c>
       <c r="F220">
-        <v>8.711028079822107</v>
+        <v>8.496631919438933</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -4774,19 +4774,19 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>8.685013466356317</v>
+        <v>8.474951717520188</v>
       </c>
       <c r="C221">
-        <v>8.482062085923657</v>
+        <v>8.463316915955705</v>
       </c>
       <c r="D221">
-        <v>9.297390130185727</v>
+        <v>8.733030303570949</v>
       </c>
       <c r="E221">
-        <v>8.687410844177899</v>
+        <v>8.455499516900735</v>
       </c>
       <c r="F221">
-        <v>8.657681029747607</v>
+        <v>8.443543882551371</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -4794,19 +4794,19 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>8.631177465369795</v>
+        <v>8.42264713766987</v>
       </c>
       <c r="C222">
-        <v>8.431573518922628</v>
+        <v>8.41052568738033</v>
       </c>
       <c r="D222">
-        <v>9.245135756997623</v>
+        <v>8.680800258682851</v>
       </c>
       <c r="E222">
-        <v>8.634054355278543</v>
+        <v>8.402442653935129</v>
       </c>
       <c r="F222">
-        <v>8.604374354563507</v>
+        <v>8.390499575499906</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -4814,19 +4814,19 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>8.577385156791562</v>
+        <v>8.370378406477453</v>
       </c>
       <c r="C223">
-        <v>8.381111398624356</v>
+        <v>8.357777950752613</v>
       </c>
       <c r="D223">
-        <v>9.192854535369765</v>
+        <v>8.628578668183213</v>
       </c>
       <c r="E223">
-        <v>8.580741386426828</v>
+        <v>8.349428950021963</v>
       </c>
       <c r="F223">
-        <v>8.551108601883117</v>
+        <v>8.337499418971937</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -4834,19 +4834,19 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>8.523637054960517</v>
+        <v>8.318146198363378</v>
       </c>
       <c r="C224">
-        <v>8.330676675935079</v>
+        <v>8.305074118419084</v>
       </c>
       <c r="D224">
-        <v>9.140548747318988</v>
+        <v>8.57636700956864</v>
       </c>
       <c r="E224">
-        <v>8.527472425839246</v>
+        <v>8.296458847675096</v>
       </c>
       <c r="F224">
-        <v>8.497884291040624</v>
+        <v>8.284543813549623</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -4854,19 +4854,19 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>8.469933642382207</v>
+        <v>8.265951161693527</v>
       </c>
       <c r="C225">
-        <v>8.280270264707704</v>
+        <v>8.252414572389126</v>
       </c>
       <c r="D225">
-        <v>9.088220619758234</v>
+        <v>8.524166705475279</v>
       </c>
       <c r="E225">
-        <v>8.474247932646671</v>
+        <v>8.243532762571393</v>
       </c>
       <c r="F225">
-        <v>8.444701917196193</v>
+        <v>8.231633102864819</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -4874,19 +4874,19 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>8.416275385337725</v>
+        <v>8.213793912751482</v>
       </c>
       <c r="C226">
-        <v>8.229893042865394</v>
+        <v>8.199799679437563</v>
       </c>
       <c r="D226">
-        <v>9.035872314184026</v>
+        <v>8.471979129469361</v>
       </c>
       <c r="E226">
-        <v>8.421068338657438</v>
+        <v>8.190651082179899</v>
       </c>
       <c r="F226">
-        <v>8.391561930110562</v>
+        <v>8.178767648575109</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -4894,19 +4894,19 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>8.362662725154831</v>
+        <v>8.161675035783496</v>
       </c>
       <c r="C227">
-        <v>8.179545847152777</v>
+        <v>8.147229787024786</v>
       </c>
       <c r="D227">
-        <v>8.983505924586447</v>
+        <v>8.419805608876464</v>
       </c>
       <c r="E227">
-        <v>8.367934054916759</v>
+        <v>8.137814181246501</v>
       </c>
       <c r="F227">
-        <v>8.33846478216666</v>
+        <v>8.125947786646062</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -4914,19 +4914,19 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>8.309096073660454</v>
+        <v>8.109595092008288</v>
       </c>
       <c r="C228">
-        <v>8.129229477365891</v>
+        <v>8.094705220205253</v>
       </c>
       <c r="D228">
-        <v>8.931123488965767</v>
+        <v>8.367647420989748</v>
       </c>
       <c r="E228">
-        <v>8.314845473967893</v>
+        <v>8.085022411590844</v>
       </c>
       <c r="F228">
-        <v>8.285410897586617</v>
+        <v>8.073173834942009</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -4934,19 +4934,19 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>8.255575829993216</v>
+        <v>8.057554614387183</v>
       </c>
       <c r="C229">
-        <v>8.078944704570004</v>
+        <v>8.042226285465853</v>
       </c>
       <c r="D229">
-        <v>8.878726989926029</v>
+        <v>8.315505800306804</v>
       </c>
       <c r="E229">
-        <v>8.261802964846694</v>
+        <v>8.032276100776274</v>
       </c>
       <c r="F229">
-        <v>8.232400682403641</v>
+        <v>8.020446066611584</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -4954,19 +4954,19 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>8.202102371627277</v>
+        <v>8.005554108272094</v>
       </c>
       <c r="C230">
-        <v>8.028692264536758</v>
+        <v>7.989793275181555</v>
       </c>
       <c r="D230">
-        <v>8.8263183515392</v>
+        <v>8.263381938719645</v>
       </c>
       <c r="E230">
-        <v>8.2088068722166</v>
+        <v>7.979575563972531</v>
       </c>
       <c r="F230">
-        <v>8.179434484929235</v>
+        <v>7.967764767062859</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -4974,19 +4974,19 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>8.148676051893437</v>
+        <v>7.953594058579649</v>
       </c>
       <c r="C231">
-        <v>7.978472857979805</v>
+        <v>7.937406463085732</v>
       </c>
       <c r="D231">
-        <v>8.773899437890041</v>
+        <v>8.211276978876686</v>
       </c>
       <c r="E231">
-        <v>8.155857530377462</v>
+        <v>7.926921097831602</v>
       </c>
       <c r="F231">
-        <v>8.126512676828302</v>
+        <v>7.915130199645902</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -4994,19 +4994,19 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>8.095297210718709</v>
+        <v>7.90167492536888</v>
       </c>
       <c r="C232">
-        <v>7.928287161644058</v>
+        <v>7.885066103484075</v>
       </c>
       <c r="D232">
-        <v>8.721472067798837</v>
+        <v>8.159192030694379</v>
       </c>
       <c r="E232">
-        <v>8.102955253758317</v>
+        <v>7.874312977019467</v>
       </c>
       <c r="F232">
-        <v>8.073635600762863</v>
+        <v>7.862542612347633</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5014,19 +5014,19 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>8.041966170845683</v>
+        <v>7.849797144916969</v>
       </c>
       <c r="C233">
-        <v>7.878135821994295</v>
+        <v>7.832772441283913</v>
       </c>
       <c r="D233">
-        <v>8.669038006741673</v>
+        <v>8.107128164254545</v>
       </c>
       <c r="E233">
-        <v>8.050100335304464</v>
+        <v>7.821751464803434</v>
       </c>
       <c r="F233">
-        <v>8.020803582877452</v>
+        <v>7.81000222455485</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5034,19 +5034,19 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>7.988683235465342</v>
+        <v>7.797961135402221</v>
       </c>
       <c r="C234">
-        <v>7.828019452313578</v>
+        <v>7.780525705651361</v>
       </c>
       <c r="D234">
-        <v>8.616598964800176</v>
+        <v>8.055086413473836</v>
       </c>
       <c r="E234">
-        <v>7.997293057886015</v>
+        <v>7.76923680967314</v>
       </c>
       <c r="F234">
-        <v>7.968016906512671</v>
+        <v>7.757509257187246</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5054,19 +5054,19 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>7.935448693656353</v>
+        <v>7.746167291762029</v>
       </c>
       <c r="C235">
-        <v>7.777938646293559</v>
+        <v>7.728326108374777</v>
       </c>
       <c r="D235">
-        <v>8.564156607536546</v>
+        <v>8.003067765703371</v>
       </c>
       <c r="E235">
-        <v>7.944533688270284</v>
+        <v>7.716769243319861</v>
       </c>
       <c r="F235">
-        <v>7.915275865779146</v>
+        <v>7.705063914578518</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5074,19 +5074,19 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>7.882262821385577</v>
+        <v>7.694415987877339</v>
       </c>
       <c r="C236">
-        <v>7.727893971039892</v>
+        <v>7.67617385302571</v>
       </c>
       <c r="D236">
-        <v>8.511712554354917</v>
+        <v>7.951073177577606</v>
       </c>
       <c r="E236">
-        <v>7.891822474860319</v>
+        <v>7.66434898386616</v>
       </c>
       <c r="F236">
-        <v>7.862580734487908</v>
+        <v>7.652666388765349</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5094,19 +5094,19 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>7.829125878469239</v>
+        <v>7.642707584300084</v>
       </c>
       <c r="C237">
-        <v>7.677885964469364</v>
+        <v>7.624069130134768</v>
       </c>
       <c r="D237">
-        <v>8.459268376951195</v>
+        <v>7.899103581152054</v>
       </c>
       <c r="E237">
-        <v>7.839159654632892</v>
+        <v>7.611976238887069</v>
       </c>
       <c r="F237">
-        <v>7.809931771166511</v>
+        <v>7.600316857569136</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5114,19 +5114,19 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>7.776038111049982</v>
+        <v>7.591042423557064</v>
       </c>
       <c r="C238">
-        <v>7.627915145985092</v>
+        <v>7.572012115008811</v>
       </c>
       <c r="D238">
-        <v>8.406825599060975</v>
+        <v>7.847159873770297</v>
       </c>
       <c r="E238">
-        <v>7.786545453314597</v>
+        <v>7.559651201931734</v>
       </c>
       <c r="F238">
-        <v>7.757329208069155</v>
+        <v>7.548015491743734</v>
       </c>
     </row>
   </sheetData>
